--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Talles/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Talles/Downloads/financial_engineering_part_i/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EuropeanCall_EG" sheetId="4" r:id="rId1"/>
@@ -753,6 +753,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,10 +774,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1098,15 +1098,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
       <c r="E1" s="2"/>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1207,10 +1207,10 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="22"/>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="22" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="22"/>
@@ -1447,15 +1447,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
       <c r="E1" s="2"/>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="64"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1557,10 +1557,10 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="22"/>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="22" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="22"/>
@@ -1796,18 +1796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="I1" s="61" t="s">
+      <c r="F1" s="64"/>
+      <c r="I1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="62"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1938,10 +1938,10 @@
     <row r="12" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -2385,10 +2385,10 @@
     <row r="28" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -2832,10 +2832,10 @@
     <row r="44" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -3445,14 +3445,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4956,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X278"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5095,17 +5095,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
       <c r="C1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5118,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="52">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="Q35" s="56">
         <f t="shared" ref="Q35:Q40" ca="1" si="4">MAX($G$2*(Q16-$G$3),0)</f>
-        <v>0</v>
+        <v>78.773150758236852</v>
       </c>
       <c r="R35" s="57"/>
       <c r="S35" s="57"/>
@@ -6350,11 +6350,11 @@
       </c>
       <c r="P36" s="59">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>71.986328488928109</v>
       </c>
       <c r="Q36" s="56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>65.448177847542979</v>
       </c>
       <c r="R36" s="57"/>
       <c r="S36" s="57"/>
@@ -6386,15 +6386,15 @@
       </c>
       <c r="O37" s="59">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>65.45968209485325</v>
       </c>
       <c r="P37" s="59">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>59.169699891947303</v>
       </c>
       <c r="Q37" s="56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>53.116390447747449</v>
       </c>
       <c r="R37" s="57"/>
       <c r="S37" s="57"/>
@@ -6422,19 +6422,19 @@
       </c>
       <c r="N38" s="59">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>59.183285512770922</v>
       </c>
       <c r="O38" s="59">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>53.13200460583446</v>
       </c>
       <c r="P38" s="59">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>47.308367032256207</v>
       </c>
       <c r="Q38" s="56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>41.703760831689408</v>
       </c>
       <c r="R38" s="57"/>
       <c r="S38" s="57"/>
@@ -6458,23 +6458,23 @@
       </c>
       <c r="M39" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>53.147591356357552</v>
       </c>
       <c r="N39" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>47.32590577181</v>
       </c>
       <c r="O39" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>41.723178565683916</v>
       </c>
       <c r="P39" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>36.331126321580527</v>
       </c>
       <c r="Q39" s="56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>31.14177897693537</v>
       </c>
       <c r="R39" s="57"/>
       <c r="S39" s="57"/>
@@ -6489,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="59" t="str">
-        <f t="shared" ref="B40:K40" si="9">IF($A40 &lt;= B$34, ($B$10*C34+$B$11*C40)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B40:J40" si="9">IF($A40 &lt;= B$34, ($B$10*C34+$B$11*C40)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C40" s="59" t="str">
@@ -6530,27 +6530,27 @@
       </c>
       <c r="L40" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>47.343416469779612</v>
       </c>
       <c r="M40" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>41.742567624467135</v>
       </c>
       <c r="N40" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>36.352323531592262</v>
       </c>
       <c r="O40" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>31.164716784836546</v>
       </c>
       <c r="P40" s="59">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>26.172081377347023</v>
       </c>
       <c r="Q40" s="56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>21.367041300073353</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.15">
@@ -6595,31 +6595,31 @@
       </c>
       <c r="K41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>41.761928032393421</v>
       </c>
       <c r="L41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>36.373491480732895</v>
       </c>
       <c r="M41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>31.187624744364012</v>
       </c>
       <c r="N41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>26.196664371344824</v>
       </c>
       <c r="O41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>21.393236810886179</v>
       </c>
       <c r="P41" s="59">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>16.770247446659386</v>
       </c>
       <c r="Q41" s="56">
-        <f t="shared" ref="L41:Q41" ca="1" si="12">MAX($G$2*(Q22-$G$3),0)</f>
-        <v>0</v>
+        <f t="shared" ref="Q41" ca="1" si="12">MAX($G$2*(Q22-$G$3),0)</f>
+        <v>12.320870044963712</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
@@ -6660,35 +6660,35 @@
       </c>
       <c r="J42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2365869727484728E-2</v>
+        <v>36.394630193547023</v>
       </c>
       <c r="K42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10321228922823039</v>
+        <v>31.2105028802631</v>
       </c>
       <c r="L42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20342976643316729</v>
+        <v>26.221216976064937</v>
       </c>
       <c r="M42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>0.40095680640841586</v>
+        <v>21.419401387605276</v>
       </c>
       <c r="N42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>0.79027943365432896</v>
+        <v>16.797963863034678</v>
       </c>
       <c r="O42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5576280868040606</v>
+        <v>12.350080443685677</v>
       </c>
       <c r="P42" s="59">
         <f t="shared" ca="1" si="13"/>
-        <v>3.070059973067842</v>
+        <v>8.0691853147899995</v>
       </c>
       <c r="Q42" s="56">
-        <f t="shared" ref="L42:Q42" ca="1" si="14">MAX($G$2*(Q23-$G$3),0)</f>
-        <v>6.0510389598662613</v>
+        <f t="shared" ref="Q42" ca="1" si="14">MAX($G$2*(Q23-$G$3),0)</f>
+        <v>3.9489610401337387</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
@@ -6725,39 +6725,39 @@
       </c>
       <c r="I43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26682744956029508</v>
+        <v>31.250031291459631</v>
       </c>
       <c r="J43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47510060174752389</v>
+        <v>26.27861537510719</v>
       </c>
       <c r="K43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>0.83626598633862426</v>
+        <v>21.510333436725645</v>
       </c>
       <c r="L43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4508734344918943</v>
+        <v>16.953365416112128</v>
       </c>
       <c r="M43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4705890211519717</v>
+        <v>12.63098621482988</v>
       </c>
       <c r="N43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>4.1026617994835286</v>
+        <v>8.5959520944891352</v>
       </c>
       <c r="O43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>6.5748718922128528</v>
+        <v>4.9588662723020116</v>
       </c>
       <c r="P43" s="59">
         <f t="shared" ca="1" si="15"/>
-        <v>9.9800047216204444</v>
+        <v>1.9440969030304867</v>
       </c>
       <c r="Q43" s="56">
-        <f t="shared" ref="L43:Q43" ca="1" si="16">MAX($G$2*(Q24-$G$3),0)</f>
-        <v>13.798942289196262</v>
+        <f t="shared" ref="Q43" ca="1" si="16">MAX($G$2*(Q24-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.15">
@@ -6790,43 +6790,43 @@
       </c>
       <c r="H44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>0.77205976634821527</v>
+        <v>26.368572579450415</v>
       </c>
       <c r="I44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>1.262807516475253</v>
+        <v>21.6492821559094</v>
       </c>
       <c r="J44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0279703815508769</v>
+        <v>17.171535892155678</v>
       </c>
       <c r="K44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1856455638082677</v>
+        <v>12.972762894289358</v>
       </c>
       <c r="L44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8710345310082248</v>
+        <v>9.1187981129838978</v>
       </c>
       <c r="M44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>7.2034515086407973</v>
+        <v>5.716816912827567</v>
       </c>
       <c r="N44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>10.216963553921499</v>
+        <v>2.9268693892652782</v>
       </c>
       <c r="O44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>13.757695070203686</v>
+        <v>0.95709041693780028</v>
       </c>
       <c r="P44" s="59">
         <f t="shared" ca="1" si="17"/>
-        <v>17.432327517536933</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="56">
-        <f t="shared" ref="L44:Q44" ca="1" si="18">MAX($G$2*(Q25-$G$3),0)</f>
-        <v>20.969350611361492</v>
+        <f t="shared" ref="Q44" ca="1" si="18">MAX($G$2*(Q25-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
@@ -6855,47 +6855,47 @@
       </c>
       <c r="G45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6717429893533784</v>
+        <v>21.819828688065158</v>
       </c>
       <c r="H45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5458281216166063</v>
+        <v>17.420392460431376</v>
       </c>
       <c r="I45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>3.7924500677091779</v>
+        <v>13.328429494346178</v>
       </c>
       <c r="J45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5070636824854997</v>
+        <v>9.6081145568218727</v>
       </c>
       <c r="K45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>7.763216041002992</v>
+        <v>6.3496166092120383</v>
       </c>
       <c r="L45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>10.574677603845192</v>
+        <v>3.666775792899557</v>
       </c>
       <c r="M45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>13.852815904651276</v>
+        <v>1.6799740425318841</v>
       </c>
       <c r="N45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>17.389881586044122</v>
+        <v>0.47118127947545402</v>
       </c>
       <c r="O45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>20.925713654573286</v>
+        <v>0</v>
       </c>
       <c r="P45" s="59">
         <f t="shared" ca="1" si="19"/>
-        <v>24.329186593335717</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="56">
-        <f t="shared" ref="L45:Q45" ca="1" si="20">MAX($G$2*(Q26-$G$3),0)</f>
-        <v>27.605307891822605</v>
+        <f t="shared" ref="Q45" ca="1" si="20">MAX($G$2*(Q26-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
@@ -6920,51 +6920,51 @@
       </c>
       <c r="F46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>3.0188932797708858</v>
+        <v>17.684012401736403</v>
       </c>
       <c r="G46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3280527452037569</v>
+        <v>13.682534252425061</v>
       </c>
       <c r="H46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>6.0602365826432525</v>
+        <v>10.064577089094115</v>
       </c>
       <c r="I46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>8.2647121151118057</v>
+        <v>6.9041840069043676</v>
       </c>
       <c r="J46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>10.945962015998665</v>
+        <v>4.2850222448027253</v>
       </c>
       <c r="K46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>14.041456844522878</v>
+        <v>2.2845052042269622</v>
       </c>
       <c r="L46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>17.41459022522201</v>
+        <v>0.9447512863522568</v>
       </c>
       <c r="M46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>20.88211566509646</v>
+        <v>0.23196533389024004</v>
       </c>
       <c r="N46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>24.284442091933901</v>
+        <v>0</v>
       </c>
       <c r="O46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>27.559459317897581</v>
+        <v>0</v>
       </c>
       <c r="P46" s="59">
         <f t="shared" ca="1" si="21"/>
-        <v>30.711983798187369</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="56">
-        <f t="shared" ref="L46:Q46" ca="1" si="22">MAX($G$2*(Q27-$G$3),0)</f>
-        <v>33.746649786116222</v>
+        <f t="shared" ref="Q46" ca="1" si="22">MAX($G$2*(Q27-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
@@ -6985,55 +6985,55 @@
       </c>
       <c r="E47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>4.8121274205451217</v>
+        <v>14.029404255649565</v>
       </c>
       <c r="F47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>6.5553120720537876</v>
+        <v>10.492454735051181</v>
       </c>
       <c r="G47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>8.7207881844459756</v>
+        <v>7.4039265497578066</v>
       </c>
       <c r="H47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>11.308121991212674</v>
+        <v>4.8270888271390753</v>
       </c>
       <c r="I47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>14.268653128142217</v>
+        <v>2.8147979824762346</v>
       </c>
       <c r="J47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>17.50212313858535</v>
+        <v>1.3900485752779408</v>
       </c>
       <c r="K47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>20.871598222036425</v>
+        <v>0.52304619419124676</v>
       </c>
       <c r="L47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>24.239736918823482</v>
+        <v>0.11419790740988818</v>
       </c>
       <c r="M47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>27.513650448366793</v>
+        <v>0</v>
       </c>
       <c r="N47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>30.665112052277721</v>
+        <v>0</v>
       </c>
       <c r="O47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>33.698754439374191</v>
+        <v>0</v>
       </c>
       <c r="P47" s="59">
         <f t="shared" ca="1" si="23"/>
-        <v>36.619035067542711</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="56">
-        <f t="shared" ref="L47:Q47" ca="1" si="24">MAX($G$2*(Q28-$G$3),0)</f>
-        <v>39.43024277331898</v>
+        <f t="shared" ref="Q47" ca="1" si="24">MAX($G$2*(Q28-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
@@ -7050,59 +7050,59 @@
       </c>
       <c r="D48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>7.0067416869092636</v>
+        <v>10.895878204485198</v>
       </c>
       <c r="E48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>9.140837950704876</v>
+        <v>7.8624903814627478</v>
       </c>
       <c r="F48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>11.655648191529362</v>
+        <v>5.3157295194444201</v>
       </c>
       <c r="G48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>14.511078736503629</v>
+        <v>3.2929872294481903</v>
       </c>
       <c r="H48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>17.628526494915832</v>
+        <v>1.8065700297688896</v>
       </c>
       <c r="I48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>20.900282504664442</v>
+        <v>0.82944585978644858</v>
       </c>
       <c r="J48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>24.211337624074901</v>
+        <v>0.28602271800141987</v>
       </c>
       <c r="K48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>27.467881253720357</v>
+        <v>5.6220306017657505E-2</v>
       </c>
       <c r="L48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>30.618280343622793</v>
+        <v>0</v>
       </c>
       <c r="M48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>33.650899479170292</v>
+        <v>0</v>
       </c>
       <c r="N48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>36.570194632676326</v>
+        <v>0</v>
       </c>
       <c r="O48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>39.380453211301287</v>
+        <v>0</v>
       </c>
       <c r="P48" s="59">
         <f t="shared" ca="1" si="25"/>
-        <v>42.08580043371628</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="56">
-        <f t="shared" ref="L48:Q48" ca="1" si="26">MAX($G$2*(Q29-$G$3),0)</f>
-        <v>44.690205465543585</v>
+        <f t="shared" ref="Q48" ca="1" si="26">MAX($G$2*(Q29-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -7115,63 +7115,63 @@
       </c>
       <c r="C49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>9.5315808580178079</v>
+        <v>8.2886474924739471</v>
       </c>
       <c r="D49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>11.98776181671578</v>
+        <v>5.7642256346478016</v>
       </c>
       <c r="E49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>14.758083703759013</v>
+        <v>3.7320089772042411</v>
       </c>
       <c r="F49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>17.778155242142741</v>
+        <v>2.1977335591308913</v>
       </c>
       <c r="G49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>20.959966234076798</v>
+        <v>1.1364229287578056</v>
       </c>
       <c r="H49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>24.206320698493752</v>
+        <v>0.48690755260732521</v>
       </c>
       <c r="I49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>27.430159837851342</v>
+        <v>0.15485320169907407</v>
       </c>
       <c r="J49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>30.5714886426072</v>
+        <v>2.7677589549643319E-2</v>
       </c>
       <c r="K49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>33.603084875767316</v>
+        <v>0</v>
       </c>
       <c r="L49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>36.521394891184968</v>
+        <v>0</v>
       </c>
       <c r="M49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>39.330704667121616</v>
+        <v>0</v>
       </c>
       <c r="N49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>42.035138047403287</v>
+        <v>0</v>
       </c>
       <c r="O49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>44.63866287481617</v>
+        <v>0</v>
       </c>
       <c r="P49" s="59">
         <f t="shared" ca="1" si="27"/>
-        <v>47.145096892481654</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="56">
-        <f t="shared" ref="L49:Q49" ca="1" si="28">MAX($G$2*(Q30-$G$3),0)</f>
-        <v>49.558113421987763</v>
+        <f t="shared" ref="Q49" ca="1" si="28">MAX($G$2*(Q30-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -7180,67 +7180,67 @@
       </c>
       <c r="B50" s="59">
         <f t="shared" ref="B50:P50" ca="1" si="29">IF($A50 &lt;= B$34, ($B$10*C49+$B$11*C50)/EXP($B$6 * $B$3/$B$5),"")</f>
-        <v>12.30513760441559</v>
+        <v>6.1811204218573375</v>
       </c>
       <c r="C50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>15.004477868421215</v>
+        <v>4.1401901328645776</v>
       </c>
       <c r="D50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>17.941535346181716</v>
+        <v>2.5670641462151642</v>
       </c>
       <c r="E50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>21.042310191263944</v>
+        <v>1.4383729036243151</v>
       </c>
       <c r="F50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>24.223430492776853</v>
+        <v>0.7024895466596176</v>
       </c>
       <c r="G50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>27.405970229411974</v>
+        <v>0.28189369276277376</v>
       </c>
       <c r="H50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>30.528679371118884</v>
+        <v>8.3148365844163519E-2</v>
       </c>
       <c r="I50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>33.555310599448781</v>
+        <v>1.3625841222527794E-2</v>
       </c>
       <c r="J50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>36.472635813234547</v>
+        <v>0</v>
       </c>
       <c r="K50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>39.280997110832331</v>
+        <v>0</v>
       </c>
       <c r="L50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>41.984516961681251</v>
+        <v>0</v>
       </c>
       <c r="M50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>44.587161886172289</v>
+        <v>0</v>
       </c>
       <c r="N50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>47.092748355056521</v>
+        <v>0</v>
       </c>
       <c r="O50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>49.504948465684151</v>
+        <v>0</v>
       </c>
       <c r="P50" s="59">
         <f t="shared" ca="1" si="29"/>
-        <v>51.827295403516658</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="56">
-        <f t="shared" ref="L50:Q50" ca="1" si="30">MAX($G$2*(Q31-$G$3),0)</f>
-        <v>54.063188697035102</v>
+        <f t="shared" ref="Q50" ca="1" si="30">MAX($G$2*(Q31-$G$3),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="Q73" s="56">
         <f t="shared" ref="Q73:Q78" ca="1" si="34">MAX($G$2*(Q54-$G$3),0)</f>
-        <v>0</v>
+        <v>78.773150758236852</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -8301,11 +8301,11 @@
       </c>
       <c r="P74" s="59">
         <f ca="1">IF($A74 &lt;= P$34, MAX(MAX($G$2*(P55-$G$3),0),($B$10*Q73+$B$11*Q74)/EXP($B$6 * $B$3/$B$5)),"")</f>
-        <v>0</v>
+        <v>71.986328488928109</v>
       </c>
       <c r="Q74" s="56">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>65.448177847542979</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
@@ -8366,15 +8366,15 @@
       </c>
       <c r="O75" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>65.45968209485325</v>
       </c>
       <c r="P75" s="59">
         <f t="shared" ref="P75:P88" ca="1" si="36">IF($A75 &lt;= P$34, MAX(MAX($G$2*(P56-$G$3),0),($B$10*Q74+$B$11*Q75)/EXP($B$6 * $B$3/$B$5)),"")</f>
-        <v>0</v>
+        <v>59.169699891947303</v>
       </c>
       <c r="Q75" s="56">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>53.116390447747449</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
@@ -8431,19 +8431,19 @@
       </c>
       <c r="N76" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>59.183285512770922</v>
       </c>
       <c r="O76" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>53.13200460583446</v>
       </c>
       <c r="P76" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>47.308367032256207</v>
       </c>
       <c r="Q76" s="56">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>41.703760831689408</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -8496,23 +8496,23 @@
       </c>
       <c r="M77" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>53.147591356357552</v>
       </c>
       <c r="N77" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>47.32590577181</v>
       </c>
       <c r="O77" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>41.723178565683916</v>
       </c>
       <c r="P77" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>36.331126321580527</v>
       </c>
       <c r="Q77" s="56">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>31.14177897693537</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -8561,27 +8561,27 @@
       </c>
       <c r="L78" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>47.343416469779612</v>
       </c>
       <c r="M78" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>41.742567624467135</v>
       </c>
       <c r="N78" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>36.352323531592262</v>
       </c>
       <c r="O78" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>31.164716784836546</v>
       </c>
       <c r="P78" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>26.172081377347023</v>
       </c>
       <c r="Q78" s="56">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>21.367041300073353</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -8626,31 +8626,31 @@
       </c>
       <c r="K79" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>41.761928032393421</v>
       </c>
       <c r="L79" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>36.373491480732895</v>
       </c>
       <c r="M79" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>31.187624744364012</v>
       </c>
       <c r="N79" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>26.196664371344824</v>
       </c>
       <c r="O79" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>21.393236810886179</v>
       </c>
       <c r="P79" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>16.770247446659386</v>
       </c>
       <c r="Q79" s="56">
         <f t="shared" ref="Q79" ca="1" si="37">MAX($G$2*(Q60-$G$3),0)</f>
-        <v>0</v>
+        <v>12.320870044963712</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -8691,35 +8691,35 @@
       </c>
       <c r="J80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>5.2365869727484728E-2</v>
+        <v>36.394630193547023</v>
       </c>
       <c r="K80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.10321228922823039</v>
+        <v>31.2105028802631</v>
       </c>
       <c r="L80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.20342976643316729</v>
+        <v>26.221216976064937</v>
       </c>
       <c r="M80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.40095680640841586</v>
+        <v>21.419401387605276</v>
       </c>
       <c r="N80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.79027943365432896</v>
+        <v>16.797963863034678</v>
       </c>
       <c r="O80" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5576280868040606</v>
+        <v>12.350080443685677</v>
       </c>
       <c r="P80" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>3.070059973067842</v>
+        <v>8.0691853147899995</v>
       </c>
       <c r="Q80" s="56">
         <f t="shared" ref="Q80" ca="1" si="38">MAX($G$2*(Q61-$G$3),0)</f>
-        <v>6.0510389598662613</v>
+        <v>3.9489610401337387</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -8756,39 +8756,39 @@
       </c>
       <c r="I81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.26700048928946152</v>
+        <v>31.250031291459631</v>
       </c>
       <c r="J81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.47544166027796825</v>
+        <v>26.27861537510719</v>
       </c>
       <c r="K81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.83693820723118573</v>
+        <v>21.510333436725645</v>
       </c>
       <c r="L81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>1.4521983710879898</v>
+        <v>16.953365416112128</v>
       </c>
       <c r="M81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>2.4732004499294735</v>
+        <v>12.63098621482988</v>
       </c>
       <c r="N81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>4.1078088837138695</v>
+        <v>8.5959520944891352</v>
       </c>
       <c r="O81" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>6.5850167126661105</v>
+        <v>4.9588662723020116</v>
       </c>
       <c r="P81" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>10.000000000000028</v>
+        <v>1.9440969030304867</v>
       </c>
       <c r="Q81" s="56">
         <f t="shared" ref="Q81" ca="1" si="39">MAX($G$2*(Q62-$G$3),0)</f>
-        <v>13.798942289196262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -8821,43 +8821,43 @@
       </c>
       <c r="H82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>0.77301304038161855</v>
+        <v>26.368572579450415</v>
       </c>
       <c r="I82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>1.2645184991695073</v>
+        <v>21.6492821559094</v>
       </c>
       <c r="J82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>2.0310117626694293</v>
+        <v>17.171535892155678</v>
       </c>
       <c r="K82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>3.1909878030743224</v>
+        <v>12.972762894289358</v>
       </c>
       <c r="L82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>4.8802783770561673</v>
+        <v>9.1187981129838978</v>
       </c>
       <c r="M82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>7.2191370408760855</v>
+        <v>5.716816912827567</v>
       </c>
       <c r="N82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>10.242885131164877</v>
+        <v>2.9268693892652782</v>
       </c>
       <c r="O82" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>13.798942289196262</v>
+        <v>0.95709041693780028</v>
       </c>
       <c r="P82" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>17.453564953226063</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="56">
         <f t="shared" ref="Q82" ca="1" si="40">MAX($G$2*(Q63-$G$3),0)</f>
-        <v>20.969350611361492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -8886,47 +8886,47 @@
       </c>
       <c r="G83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>1.6746985095614064</v>
+        <v>21.819828688065158</v>
       </c>
       <c r="H83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>2.5507284169335933</v>
+        <v>17.420392460431376</v>
       </c>
       <c r="I83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>3.8004482583419978</v>
+        <v>13.328429494346178</v>
       </c>
       <c r="J83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>5.5198768534822813</v>
+        <v>9.6081145568218727</v>
       </c>
       <c r="K83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>7.7832868761062874</v>
+        <v>6.3496166092120383</v>
       </c>
       <c r="L83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>10.60526734379008</v>
+        <v>3.666775792899557</v>
       </c>
       <c r="M83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>13.897887694796179</v>
+        <v>1.6799740425318841</v>
       </c>
       <c r="N83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>17.453564953226049</v>
+        <v>0.47118127947545402</v>
       </c>
       <c r="O83" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>20.969350611361477</v>
+        <v>0</v>
       </c>
       <c r="P83" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>24.351573601332504</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="56">
         <f t="shared" ref="Q83" ca="1" si="41">MAX($G$2*(Q64-$G$3),0)</f>
-        <v>27.605307891822605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -8951,51 +8951,51 @@
       </c>
       <c r="F84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>3.0257041414688728</v>
+        <v>17.684012401736403</v>
       </c>
       <c r="G84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>4.3386090230820686</v>
+        <v>13.682534252425061</v>
       </c>
       <c r="H84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>6.0762879477918945</v>
+        <v>10.064577089094115</v>
       </c>
       <c r="I84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>8.2885882374265467</v>
+        <v>6.9041840069043676</v>
       </c>
       <c r="J84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>10.980588503363515</v>
+        <v>4.2850222448027253</v>
       </c>
       <c r="K84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>14.090229820979296</v>
+        <v>2.2845052042269622</v>
       </c>
       <c r="L84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>17.481038926598934</v>
+        <v>0.9447512863522568</v>
       </c>
       <c r="M84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>20.969350611361477</v>
+        <v>0.23196533389024004</v>
       </c>
       <c r="N84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>24.351573601332504</v>
+        <v>0</v>
       </c>
       <c r="O84" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>27.605307891822605</v>
+        <v>0</v>
       </c>
       <c r="P84" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>30.735434694373197</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="56">
         <f t="shared" ref="Q84" ca="1" si="42">MAX($G$2*(Q65-$G$3),0)</f>
-        <v>33.746649786116222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
@@ -9016,55 +9016,55 @@
       </c>
       <c r="E85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>4.8252906019772048</v>
+        <v>14.029404255649565</v>
       </c>
       <c r="F85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>6.5746477280036828</v>
+        <v>10.492454735051181</v>
       </c>
       <c r="G85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>8.7486554099350951</v>
+        <v>7.4039265497578066</v>
       </c>
       <c r="H85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>11.347472771456999</v>
+        <v>4.8270888271390753</v>
       </c>
       <c r="I85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>14.32304523687665</v>
+        <v>2.8147979824762346</v>
       </c>
       <c r="J85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>17.575730094233812</v>
+        <v>1.3900485752779408</v>
       </c>
       <c r="K85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>20.969350611361477</v>
+        <v>0.52304619419124676</v>
       </c>
       <c r="L85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>24.351573601332504</v>
+        <v>0.11419790740988818</v>
       </c>
       <c r="M85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>27.605307891822605</v>
+        <v>0</v>
       </c>
       <c r="N85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>30.735434694373197</v>
+        <v>0</v>
       </c>
       <c r="O85" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>33.746649786116222</v>
+        <v>0</v>
       </c>
       <c r="P85" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>36.643470554320359</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="56">
         <f t="shared" ref="Q85" ca="1" si="43">MAX($G$2*(Q66-$G$3),0)</f>
-        <v>39.43024277331898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -9081,59 +9081,59 @@
       </c>
       <c r="D86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>7.0294978334576657</v>
+        <v>10.895878204485198</v>
       </c>
       <c r="E86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>9.1729173591984079</v>
+        <v>7.8624903814627478</v>
       </c>
       <c r="F86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>11.700114280624893</v>
+        <v>5.3157295194444201</v>
       </c>
       <c r="G86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>14.571680361464477</v>
+        <v>3.2929872294481903</v>
       </c>
       <c r="H86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>17.709788198153923</v>
+        <v>1.8065700297688896</v>
       </c>
       <c r="I86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>21.007669882517884</v>
+        <v>0.82944585978644858</v>
       </c>
       <c r="J86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>24.351573601332504</v>
+        <v>0.28602271800141987</v>
       </c>
       <c r="K86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>27.605307891822605</v>
+        <v>5.6220306017657505E-2</v>
       </c>
       <c r="L86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>30.735434694373197</v>
+        <v>0</v>
       </c>
       <c r="M86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>33.746649786116222</v>
+        <v>0</v>
       </c>
       <c r="N86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>36.643470554320359</v>
+        <v>0</v>
       </c>
       <c r="O86" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>39.43024277331898</v>
+        <v>0</v>
       </c>
       <c r="P86" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>42.111147123986484</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="56">
         <f t="shared" ref="Q86" ca="1" si="44">MAX($G$2*(Q67-$G$3),0)</f>
-        <v>44.690205465543585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -9146,63 +9146,63 @@
       </c>
       <c r="C87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>9.5678621682180758</v>
+        <v>8.2886474924739471</v>
       </c>
       <c r="D87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>12.037190792039002</v>
+        <v>5.7642256346478016</v>
       </c>
       <c r="E87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>14.824379902655805</v>
+        <v>3.7320089772042411</v>
       </c>
       <c r="F87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>17.86567733659253</v>
+        <v>2.1977335591308913</v>
       </c>
       <c r="G87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>21.073667480875653</v>
+        <v>1.1364229287578056</v>
       </c>
       <c r="H87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>24.351573601332504</v>
+        <v>0.48690755260732521</v>
       </c>
       <c r="I87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>27.605307891822605</v>
+        <v>0.15485320169907407</v>
       </c>
       <c r="J87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>30.735434694373197</v>
+        <v>2.7677589549643319E-2</v>
       </c>
       <c r="K87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>33.746649786116222</v>
+        <v>0</v>
       </c>
       <c r="L87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>36.643470554320359</v>
+        <v>0</v>
       </c>
       <c r="M87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>39.43024277331898</v>
+        <v>0</v>
       </c>
       <c r="N87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>42.111147123986484</v>
+        <v>0</v>
       </c>
       <c r="O87" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>44.690205465543585</v>
+        <v>0</v>
       </c>
       <c r="P87" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>47.171286869100221</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="56">
         <f t="shared" ref="Q87" ca="1" si="45">MAX($G$2*(Q68-$G$3),0)</f>
-        <v>49.558113421987763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -9211,67 +9211,67 @@
       </c>
       <c r="B88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>12.359784797284899</v>
+        <v>6.1811204218573375</v>
       </c>
       <c r="C88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>15.076981871408204</v>
+        <v>4.1401901328645776</v>
       </c>
       <c r="D88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>18.036477300042723</v>
+        <v>2.5670641462151642</v>
       </c>
       <c r="E88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>21.16511026267623</v>
+        <v>1.4383729036243151</v>
       </c>
       <c r="F88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>24.380542405888736</v>
+        <v>0.7024895466596176</v>
       </c>
       <c r="G88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>27.605307891822591</v>
+        <v>0.28189369276277376</v>
       </c>
       <c r="H88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>30.735434694373183</v>
+        <v>8.3148365844163519E-2</v>
       </c>
       <c r="I88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>33.746649786116208</v>
+        <v>1.3625841222527794E-2</v>
       </c>
       <c r="J88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>36.643470554320345</v>
+        <v>0</v>
       </c>
       <c r="K88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>39.430242773318966</v>
+        <v>0</v>
       </c>
       <c r="L88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>42.11114712398647</v>
+        <v>0</v>
       </c>
       <c r="M88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>44.690205465543571</v>
+        <v>0</v>
       </c>
       <c r="N88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>47.171286869100207</v>
+        <v>0</v>
       </c>
       <c r="O88" s="59">
         <f t="shared" ca="1" si="35"/>
-        <v>49.558113421987748</v>
+        <v>0</v>
       </c>
       <c r="P88" s="59">
         <f t="shared" ca="1" si="36"/>
-        <v>51.854265811587879</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="56">
         <f t="shared" ref="Q88" ca="1" si="46">MAX($G$2*(Q69-$G$3),0)</f>
-        <v>54.063188697035102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
@@ -9334,1057 +9334,1057 @@
       <c r="A92" s="49">
         <v>15</v>
       </c>
-      <c r="B92" s="67" t="str">
+      <c r="B92" s="61" t="str">
         <f t="shared" ref="B92:P92" si="47">IF($A92&lt;=B$91,IF(B73=B35,1,0),"")</f>
         <v/>
       </c>
-      <c r="C92" s="67" t="str">
+      <c r="C92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="D92" s="67" t="str">
+      <c r="D92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="E92" s="67" t="str">
+      <c r="E92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F92" s="67" t="str">
+      <c r="F92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G92" s="67" t="str">
+      <c r="G92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H92" s="67" t="str">
+      <c r="H92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I92" s="67" t="str">
+      <c r="I92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J92" s="67" t="str">
+      <c r="J92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K92" s="67" t="str">
+      <c r="K92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L92" s="67" t="str">
+      <c r="L92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M92" s="67" t="str">
+      <c r="M92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="N92" s="67" t="str">
+      <c r="N92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="O92" s="67" t="str">
+      <c r="O92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P92" s="67" t="str">
+      <c r="P92" s="61" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="Q92" s="67"/>
+      <c r="Q92" s="61"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="49">
         <v>14</v>
       </c>
-      <c r="B93" s="67" t="str">
+      <c r="B93" s="61" t="str">
         <f t="shared" ref="B93:O107" si="48">IF($A93&lt;=B$91,IF($G$2*(B55-$G$3)=B74,1,0),"")</f>
         <v/>
       </c>
-      <c r="C93" s="67" t="str">
+      <c r="C93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D93" s="67" t="str">
+      <c r="D93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E93" s="67" t="str">
+      <c r="E93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F93" s="67" t="str">
+      <c r="F93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G93" s="67" t="str">
+      <c r="G93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H93" s="67" t="str">
+      <c r="H93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I93" s="67" t="str">
+      <c r="I93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J93" s="67" t="str">
+      <c r="J93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K93" s="67" t="str">
+      <c r="K93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L93" s="67" t="str">
+      <c r="L93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M93" s="67" t="str">
+      <c r="M93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="N93" s="67" t="str">
+      <c r="N93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="O93" s="67" t="str">
+      <c r="O93" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="P93" s="67">
+      <c r="P93" s="61">
         <f ca="1">IF($A93&lt;=P$91,IF($G$2*(P55-$G$3)=P74,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q93" s="67"/>
+      <c r="Q93" s="61"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="49">
         <v>13</v>
       </c>
-      <c r="B94" s="67" t="str">
+      <c r="B94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C94" s="67" t="str">
+      <c r="C94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D94" s="67" t="str">
+      <c r="D94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E94" s="67" t="str">
+      <c r="E94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F94" s="67" t="str">
+      <c r="F94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G94" s="67" t="str">
+      <c r="G94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H94" s="67" t="str">
+      <c r="H94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I94" s="67" t="str">
+      <c r="I94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J94" s="67" t="str">
+      <c r="J94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K94" s="67" t="str">
+      <c r="K94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L94" s="67" t="str">
+      <c r="L94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M94" s="67" t="str">
+      <c r="M94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="N94" s="67" t="str">
+      <c r="N94" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="O94" s="67">
+      <c r="O94" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P94" s="67">
+      <c r="P94" s="61">
         <f t="shared" ref="P94:P107" ca="1" si="49">IF($A94&lt;=P$91,IF($G$2*(P56-$G$3)=P75,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q94" s="67"/>
+      <c r="Q94" s="61"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="49">
         <v>12</v>
       </c>
-      <c r="B95" s="67" t="str">
+      <c r="B95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C95" s="67" t="str">
+      <c r="C95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D95" s="67" t="str">
+      <c r="D95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E95" s="67" t="str">
+      <c r="E95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F95" s="67" t="str">
+      <c r="F95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G95" s="67" t="str">
+      <c r="G95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H95" s="67" t="str">
+      <c r="H95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I95" s="67" t="str">
+      <c r="I95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J95" s="67" t="str">
+      <c r="J95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K95" s="67" t="str">
+      <c r="K95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L95" s="67" t="str">
+      <c r="L95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M95" s="67" t="str">
+      <c r="M95" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="N95" s="67">
+      <c r="N95" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O95" s="67">
+      <c r="O95" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P95" s="67">
+      <c r="P95" s="61">
         <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="67"/>
+      <c r="Q95" s="61"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="49">
         <v>11</v>
       </c>
-      <c r="B96" s="67" t="str">
+      <c r="B96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C96" s="67" t="str">
+      <c r="C96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D96" s="67" t="str">
+      <c r="D96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E96" s="67" t="str">
+      <c r="E96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F96" s="67" t="str">
+      <c r="F96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G96" s="67" t="str">
+      <c r="G96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H96" s="67" t="str">
+      <c r="H96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I96" s="67" t="str">
+      <c r="I96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J96" s="67" t="str">
+      <c r="J96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K96" s="67" t="str">
+      <c r="K96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L96" s="67" t="str">
+      <c r="L96" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M96" s="67">
+      <c r="M96" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N96" s="67">
+      <c r="N96" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O96" s="67">
+      <c r="O96" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P96" s="67">
+      <c r="P96" s="61">
         <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="67"/>
+      <c r="Q96" s="61"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="49">
         <v>10</v>
       </c>
-      <c r="B97" s="67" t="str">
+      <c r="B97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C97" s="67" t="str">
+      <c r="C97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D97" s="67" t="str">
+      <c r="D97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E97" s="67" t="str">
+      <c r="E97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F97" s="67" t="str">
+      <c r="F97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G97" s="67" t="str">
+      <c r="G97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H97" s="67" t="str">
+      <c r="H97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I97" s="67" t="str">
+      <c r="I97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J97" s="67" t="str">
+      <c r="J97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K97" s="67" t="str">
+      <c r="K97" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L97" s="67">
+      <c r="L97" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M97" s="67">
+      <c r="M97" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N97" s="67">
+      <c r="N97" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O97" s="67">
+      <c r="O97" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P97" s="67">
+      <c r="P97" s="61">
         <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="67"/>
+      <c r="Q97" s="61"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="49">
         <v>9</v>
       </c>
-      <c r="B98" s="67" t="str">
+      <c r="B98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C98" s="67" t="str">
+      <c r="C98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D98" s="67" t="str">
+      <c r="D98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E98" s="67" t="str">
+      <c r="E98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F98" s="67" t="str">
+      <c r="F98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G98" s="67" t="str">
+      <c r="G98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H98" s="67" t="str">
+      <c r="H98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I98" s="67" t="str">
+      <c r="I98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J98" s="67" t="str">
+      <c r="J98" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K98" s="67">
+      <c r="K98" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L98" s="67">
+      <c r="L98" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M98" s="67">
+      <c r="M98" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N98" s="67">
+      <c r="N98" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O98" s="67">
+      <c r="O98" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P98" s="67">
+      <c r="P98" s="61">
         <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q98" s="67"/>
+      <c r="Q98" s="61"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="49">
         <v>8</v>
       </c>
-      <c r="B99" s="67" t="str">
+      <c r="B99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C99" s="67" t="str">
+      <c r="C99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D99" s="67" t="str">
+      <c r="D99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E99" s="67" t="str">
+      <c r="E99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F99" s="67" t="str">
+      <c r="F99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G99" s="67" t="str">
+      <c r="G99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H99" s="67" t="str">
+      <c r="H99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I99" s="67" t="str">
+      <c r="I99" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J99" s="67">
+      <c r="J99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K99" s="67">
+      <c r="K99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L99" s="67">
+      <c r="L99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M99" s="67">
+      <c r="M99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N99" s="67">
+      <c r="N99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O99" s="67">
+      <c r="O99" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P99" s="67">
+      <c r="P99" s="61">
         <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="67"/>
+      <c r="Q99" s="61"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="49">
         <v>7</v>
       </c>
-      <c r="B100" s="67" t="str">
+      <c r="B100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C100" s="67" t="str">
+      <c r="C100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D100" s="67" t="str">
+      <c r="D100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E100" s="67" t="str">
+      <c r="E100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F100" s="67" t="str">
+      <c r="F100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G100" s="67" t="str">
+      <c r="G100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H100" s="67" t="str">
+      <c r="H100" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I100" s="67">
+      <c r="I100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J100" s="67">
+      <c r="J100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K100" s="67">
+      <c r="K100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L100" s="67">
+      <c r="L100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M100" s="67">
+      <c r="M100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N100" s="67">
+      <c r="N100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O100" s="67">
+      <c r="O100" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="P100" s="67">
+      <c r="P100" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q100" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="61"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="49">
         <v>6</v>
       </c>
-      <c r="B101" s="67" t="str">
+      <c r="B101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C101" s="67" t="str">
+      <c r="C101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D101" s="67" t="str">
+      <c r="D101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E101" s="67" t="str">
+      <c r="E101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F101" s="67" t="str">
+      <c r="F101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G101" s="67" t="str">
+      <c r="G101" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H101" s="67">
+      <c r="H101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="I101" s="67">
+      <c r="I101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J101" s="67">
+      <c r="J101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K101" s="67">
+      <c r="K101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L101" s="67">
+      <c r="L101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M101" s="67">
+      <c r="M101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N101" s="67">
+      <c r="N101" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="O101" s="67">
+      <c r="O101" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P101" s="67">
+        <v>0</v>
+      </c>
+      <c r="P101" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q101" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="61"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="49">
         <v>5</v>
       </c>
-      <c r="B102" s="67" t="str">
+      <c r="B102" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C102" s="67" t="str">
+      <c r="C102" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D102" s="67" t="str">
+      <c r="D102" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E102" s="67" t="str">
+      <c r="E102" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F102" s="67" t="str">
+      <c r="F102" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G102" s="67">
+      <c r="G102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="H102" s="67">
+      <c r="H102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="I102" s="67">
+      <c r="I102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J102" s="67">
+      <c r="J102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K102" s="67">
+      <c r="K102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L102" s="67">
+      <c r="L102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M102" s="67">
+      <c r="M102" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="N102" s="67">
+      <c r="N102" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O102" s="67">
+        <v>0</v>
+      </c>
+      <c r="O102" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P102" s="67">
+        <v>0</v>
+      </c>
+      <c r="P102" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q102" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="61"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="49">
         <v>4</v>
       </c>
-      <c r="B103" s="67" t="str">
+      <c r="B103" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C103" s="67" t="str">
+      <c r="C103" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D103" s="67" t="str">
+      <c r="D103" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E103" s="67" t="str">
+      <c r="E103" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F103" s="67">
+      <c r="F103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="G103" s="67">
+      <c r="G103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="H103" s="67">
+      <c r="H103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="I103" s="67">
+      <c r="I103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J103" s="67">
+      <c r="J103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K103" s="67">
+      <c r="K103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="L103" s="67">
+      <c r="L103" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="M103" s="67">
+      <c r="M103" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="N103" s="67">
+        <v>0</v>
+      </c>
+      <c r="N103" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O103" s="67">
+        <v>0</v>
+      </c>
+      <c r="O103" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P103" s="67">
+        <v>0</v>
+      </c>
+      <c r="P103" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q103" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="61"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="49">
         <v>3</v>
       </c>
-      <c r="B104" s="67" t="str">
+      <c r="B104" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C104" s="67" t="str">
+      <c r="C104" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D104" s="67" t="str">
+      <c r="D104" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E104" s="67">
+      <c r="E104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="F104" s="67">
+      <c r="F104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="G104" s="67">
+      <c r="G104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="H104" s="67">
+      <c r="H104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="I104" s="67">
+      <c r="I104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J104" s="67">
+      <c r="J104" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="K104" s="67">
+      <c r="K104" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="L104" s="67">
+        <v>0</v>
+      </c>
+      <c r="L104" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="M104" s="67">
+        <v>0</v>
+      </c>
+      <c r="M104" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="N104" s="67">
+        <v>0</v>
+      </c>
+      <c r="N104" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O104" s="67">
+        <v>0</v>
+      </c>
+      <c r="O104" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P104" s="67">
+        <v>0</v>
+      </c>
+      <c r="P104" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q104" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="61"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="49">
         <v>2</v>
       </c>
-      <c r="B105" s="67" t="str">
+      <c r="B105" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C105" s="67" t="str">
+      <c r="C105" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="D105" s="67">
+      <c r="D105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="E105" s="67">
+      <c r="E105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="F105" s="67">
+      <c r="F105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="G105" s="67">
+      <c r="G105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="H105" s="67">
+      <c r="H105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="I105" s="67">
+      <c r="I105" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="J105" s="67">
+      <c r="J105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="K105" s="67">
+        <v>0</v>
+      </c>
+      <c r="K105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="L105" s="67">
+        <v>0</v>
+      </c>
+      <c r="L105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="M105" s="67">
+        <v>0</v>
+      </c>
+      <c r="M105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="N105" s="67">
+        <v>0</v>
+      </c>
+      <c r="N105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O105" s="67">
+        <v>0</v>
+      </c>
+      <c r="O105" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P105" s="67">
+        <v>0</v>
+      </c>
+      <c r="P105" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q105" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="61"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="49">
         <v>1</v>
       </c>
-      <c r="B106" s="67" t="str">
+      <c r="B106" s="61" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="C106" s="67">
+      <c r="C106" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="D106" s="67">
+      <c r="D106" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="E106" s="67">
+      <c r="E106" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="F106" s="67">
+      <c r="F106" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="G106" s="67">
+      <c r="G106" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="H106" s="67">
+      <c r="H106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="I106" s="67">
+        <v>0</v>
+      </c>
+      <c r="I106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="J106" s="67">
+        <v>0</v>
+      </c>
+      <c r="J106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="K106" s="67">
+        <v>0</v>
+      </c>
+      <c r="K106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="L106" s="67">
+        <v>0</v>
+      </c>
+      <c r="L106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="M106" s="67">
+        <v>0</v>
+      </c>
+      <c r="M106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="N106" s="67">
+        <v>0</v>
+      </c>
+      <c r="N106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O106" s="67">
+        <v>0</v>
+      </c>
+      <c r="O106" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P106" s="67">
+        <v>0</v>
+      </c>
+      <c r="P106" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q106" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="61"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="49">
         <v>0</v>
       </c>
-      <c r="B107" s="67">
+      <c r="B107" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="C107" s="67">
+      <c r="C107" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="D107" s="67">
+      <c r="D107" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="E107" s="67">
+      <c r="E107" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="F107" s="67">
+      <c r="F107" s="61">
         <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
-      <c r="G107" s="67">
+      <c r="G107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="H107" s="67">
+        <v>0</v>
+      </c>
+      <c r="H107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="I107" s="67">
+        <v>0</v>
+      </c>
+      <c r="I107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="J107" s="67">
+        <v>0</v>
+      </c>
+      <c r="J107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="K107" s="67">
+        <v>0</v>
+      </c>
+      <c r="K107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="L107" s="67">
+        <v>0</v>
+      </c>
+      <c r="L107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="M107" s="67">
+        <v>0</v>
+      </c>
+      <c r="M107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="N107" s="67">
+        <v>0</v>
+      </c>
+      <c r="N107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O107" s="67">
+        <v>0</v>
+      </c>
+      <c r="O107" s="61">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="P107" s="67">
+        <v>0</v>
+      </c>
+      <c r="P107" s="61">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Q107" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="61"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="53" t="s">
@@ -11352,7 +11352,7 @@
         <v>15</v>
       </c>
       <c r="M130" s="55" t="str">
-        <f t="shared" ref="M130:Q145" ca="1" si="52">IF($A130&lt;M$15,$B$9*OFFSET(M130,0,-1),IF($A130=M$15,$B$8*OFFSET(M130,1,-1),""))</f>
+        <f t="shared" ref="M130:P130" ca="1" si="52">IF($A130&lt;M$15,$B$9*OFFSET(M130,0,-1),IF($A130=M$15,$B$8*OFFSET(M130,1,-1),""))</f>
         <v/>
       </c>
       <c r="N130" s="55" t="str">
@@ -12473,7 +12473,7 @@
         <v>14</v>
       </c>
       <c r="B150" s="59" t="str">
-        <f t="shared" ref="B150:O150" si="57">IF($A150 &lt;= B$34, MAX(MAX($G$2*(B131-$G$3),0),($B$10*C149+$B$11*C150)/EXP($B$6 * $B$3/$B$5)),"")</f>
+        <f t="shared" ref="B150:J150" si="57">IF($A150 &lt;= B$34, MAX(MAX($G$2*(B131-$G$3),0),($B$10*C149+$B$11*C150)/EXP($B$6 * $B$3/$B$5)),"")</f>
         <v/>
       </c>
       <c r="C150" s="59" t="str">
@@ -12524,7 +12524,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="59" t="str">
-        <f t="shared" ref="B151:P164" si="58">IF($A151 &lt;= B$34, MAX(MAX($G$2*(B132-$G$3),0),($B$10*C150+$B$11*C151)/EXP($B$6 * $B$3/$B$5)),"")</f>
+        <f t="shared" ref="B151:J151" si="58">IF($A151 &lt;= B$34, MAX(MAX($G$2*(B132-$G$3),0),($B$10*C150+$B$11*C151)/EXP($B$6 * $B$3/$B$5)),"")</f>
         <v/>
       </c>
       <c r="C151" s="59" t="str">
@@ -12575,7 +12575,7 @@
         <v>12</v>
       </c>
       <c r="B152" s="59" t="str">
-        <f t="shared" ref="B152:O152" si="59">IF($A152 &lt;= B$34, MAX(MAX($G$2*(B133-$G$3),0),($B$10*C151+$B$11*C152)/EXP($B$6 * $B$3/$B$5)),"")</f>
+        <f t="shared" ref="B152:J152" si="59">IF($A152 &lt;= B$34, MAX(MAX($G$2*(B133-$G$3),0),($B$10*C151+$B$11*C152)/EXP($B$6 * $B$3/$B$5)),"")</f>
         <v/>
       </c>
       <c r="C152" s="59" t="str">
@@ -12626,7 +12626,7 @@
         <v>11</v>
       </c>
       <c r="B153" s="59" t="str">
-        <f t="shared" ref="B153:O153" si="60">IF($A153 &lt;= B$34, MAX(MAX($G$2*(B134-$G$3),0),($B$10*C152+$B$11*C153)/EXP($B$6 * $B$3/$B$5)),"")</f>
+        <f t="shared" ref="B153:J153" si="60">IF($A153 &lt;= B$34, MAX(MAX($G$2*(B134-$G$3),0),($B$10*C152+$B$11*C153)/EXP($B$6 * $B$3/$B$5)),"")</f>
         <v/>
       </c>
       <c r="C153" s="59" t="str">
@@ -12677,7 +12677,7 @@
         <v>10</v>
       </c>
       <c r="B154" s="59" t="str">
-        <f t="shared" ref="B154:O164" si="61">IF($A154 &lt;= B$34, MAX(MAX($G$2*(B135-$G$3),0),($B$10*C153+$B$11*C154)/EXP($B$6 * $B$3/$B$5)),"")</f>
+        <f t="shared" ref="B154:J164" si="61">IF($A154 &lt;= B$34, MAX(MAX($G$2*(B135-$G$3),0),($B$10*C153+$B$11*C154)/EXP($B$6 * $B$3/$B$5)),"")</f>
         <v/>
       </c>
       <c r="C154" s="59" t="str">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="L154" s="56">
         <f ca="1">MAX($G$2*(L135-$G$3),0)</f>
-        <v>0</v>
+        <v>47.42238795518665</v>
       </c>
       <c r="M154" s="59"/>
       <c r="N154" s="59"/>
@@ -12768,11 +12768,11 @@
       </c>
       <c r="K155" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>41.84553546802465</v>
       </c>
       <c r="L155" s="56">
-        <f t="shared" ref="L149:L164" ca="1" si="62">MAX($G$2*(L136-$G$3),0)</f>
-        <v>0</v>
+        <f t="shared" ref="L155:L164" ca="1" si="62">MAX($G$2*(L136-$G$3),0)</f>
+        <v>36.434164513349913</v>
       </c>
       <c r="M155" s="59"/>
       <c r="N155" s="59"/>
@@ -12818,15 +12818,15 @@
       </c>
       <c r="J156" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0</v>
+        <v>36.47965014870573</v>
       </c>
       <c r="K156" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>31.272986348664176</v>
       </c>
       <c r="L156" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>26.264955442956108</v>
       </c>
       <c r="M156" s="59"/>
       <c r="N156" s="59"/>
@@ -12868,19 +12868,19 @@
       </c>
       <c r="I157" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0</v>
+        <v>31.316751304534449</v>
       </c>
       <c r="J157" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0</v>
+        <v>26.307050776936308</v>
       </c>
       <c r="K157" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>21.488469045126948</v>
       </c>
       <c r="L157" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>16.853714975853464</v>
       </c>
       <c r="M157" s="59"/>
       <c r="N157" s="59"/>
@@ -12918,23 +12918,23 @@
       </c>
       <c r="H158" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0.12298663353204746</v>
+        <v>26.34916014503338</v>
       </c>
       <c r="I158" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0.24240468185432687</v>
+        <v>21.52897195158468</v>
       </c>
       <c r="J158" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0.47777573950413016</v>
+        <v>16.892672706773183</v>
       </c>
       <c r="K158" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>0.9416883185280106</v>
+        <v>12.433247094168507</v>
       </c>
       <c r="L158" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>1.8560525701293926</v>
+        <v>8.1439474298706074</v>
       </c>
       <c r="M158" s="59"/>
       <c r="N158" s="59"/>
@@ -12968,27 +12968,27 @@
       </c>
       <c r="G159" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>0.63625363777908805</v>
+        <v>21.569488361261676</v>
       </c>
       <c r="H159" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1347084536456193</v>
+        <v>16.93164342576776</v>
       </c>
       <c r="I159" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>2.0012803345863626</v>
+        <v>12.470731090185495</v>
       </c>
       <c r="J159" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>3.480892701561578</v>
+        <v>8.180001421011923</v>
       </c>
       <c r="K159" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>5.9470380070164737</v>
+        <v>4.0529619929835263</v>
       </c>
       <c r="L159" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>9.9166319347974081</v>
+        <v>8.3368065202591879E-2</v>
       </c>
       <c r="M159" s="59"/>
       <c r="N159" s="59"/>
@@ -13018,31 +13018,31 @@
       </c>
       <c r="F160" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>1.7289693100529215</v>
+        <v>17.087831380478566</v>
       </c>
       <c r="G160" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>2.7903966450774629</v>
+        <v>12.750383019660097</v>
       </c>
       <c r="H160" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>4.3987886930966784</v>
+        <v>8.7015683826281691</v>
       </c>
       <c r="I160" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>6.7280454619729033</v>
+        <v>5.0499636932598939</v>
       </c>
       <c r="J160" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>9.8832652513040529</v>
+        <v>2.0161205903621529</v>
       </c>
       <c r="K160" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>13.7026931149191</v>
+        <v>4.1042592146341747E-2</v>
       </c>
       <c r="L160" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>17.376410780913588</v>
+        <v>0</v>
       </c>
       <c r="M160" s="59"/>
       <c r="N160" s="59"/>
@@ -13068,35 +13068,35 @@
       </c>
       <c r="E161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>3.4440381640500299</v>
+        <v>13.091054282036607</v>
       </c>
       <c r="F161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>5.110478244032012</v>
+        <v>9.2214725749887752</v>
       </c>
       <c r="G161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>7.3650732301863817</v>
+        <v>5.8033326781832928</v>
       </c>
       <c r="H161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>10.24817743236019</v>
+        <v>2.9949082311642274</v>
       </c>
       <c r="I161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>13.670588662179227</v>
+        <v>1.0027995889993235</v>
       </c>
       <c r="J161" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>17.34553110484714</v>
+        <v>2.0205511139037242E-2</v>
       </c>
       <c r="K161" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>20.880275431806041</v>
+        <v>0</v>
       </c>
       <c r="L161" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>24.28017016536748</v>
+        <v>0</v>
       </c>
       <c r="M161" s="59"/>
       <c r="N161" s="59"/>
@@ -13118,39 +13118,39 @@
       </c>
       <c r="D162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>5.7115824969758897</v>
+        <v>9.7091598342000029</v>
       </c>
       <c r="E162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>7.9155940079881413</v>
+        <v>6.4339938939257166</v>
       </c>
       <c r="F162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>10.642673415077837</v>
+        <v>3.7334542573008251</v>
       </c>
       <c r="G162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>13.830008625741339</v>
+        <v>1.7274476368408203</v>
       </c>
       <c r="H162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>17.314641133839615</v>
+        <v>0.49873104196904477</v>
       </c>
       <c r="I162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>20.850563905304</v>
+        <v>9.9472927765881323E-3</v>
       </c>
       <c r="J162" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>24.251592126013989</v>
+        <v>0</v>
       </c>
       <c r="K162" s="59">
         <f ca="1">IF($A162 &lt;= K$34, MAX(MAX($G$2*(K143-$G$3),0),($B$10*L161+$B$11*L162)/EXP($B$6 * $B$3/$B$5)),"")</f>
-        <v>27.522871988632517</v>
+        <v>0</v>
       </c>
       <c r="L162" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>30.669353359886642</v>
+        <v>0</v>
       </c>
       <c r="M162" s="59"/>
       <c r="N162" s="59"/>
@@ -13168,43 +13168,43 @@
       </c>
       <c r="C163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>8.4065487717985352</v>
+        <v>6.9875703567139471</v>
       </c>
       <c r="D163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>11.027069648322406</v>
+        <v>4.3513284343551595</v>
       </c>
       <c r="E163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>14.053462219969047</v>
+        <v>2.3333200764442306</v>
       </c>
       <c r="F163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>17.372274451105824</v>
+        <v>0.97626469720417275</v>
       </c>
       <c r="G163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>20.820842473308971</v>
+        <v>0.24801284732370746</v>
       </c>
       <c r="H163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>24.223004559059547</v>
+        <v>4.8971111347929589E-3</v>
       </c>
       <c r="I163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>27.49537503005692</v>
+        <v>0</v>
       </c>
       <c r="J163" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>30.642905403258737</v>
+        <v>0</v>
       </c>
       <c r="K163" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>33.67035829651519</v>
+        <v>0</v>
       </c>
       <c r="L163" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>36.582314635021717</v>
+        <v>0</v>
       </c>
       <c r="M163" s="59"/>
       <c r="N163" s="59"/>
@@ -13218,47 +13218,47 @@
       </c>
       <c r="B164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>11.394004831842748</v>
+        <v>4.8935190608160903</v>
       </c>
       <c r="C164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>14.300298881336198</v>
+        <v>2.8648188746390324</v>
       </c>
       <c r="D164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>17.485795478966381</v>
+        <v>1.4243002604613488</v>
       </c>
       <c r="E164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>20.82776752601449</v>
+        <v>0.54318932413933696</v>
       </c>
       <c r="F164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>24.194407461327728</v>
+        <v>0.12332137768396816</v>
       </c>
       <c r="G164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>27.467868904300673</v>
+        <v>2.4108768089098885E-3</v>
       </c>
       <c r="H164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>30.616448629175792</v>
+        <v>0</v>
       </c>
       <c r="I164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>33.644910841607185</v>
+        <v>0</v>
       </c>
       <c r="J164" s="59">
         <f t="shared" ca="1" si="61"/>
-        <v>36.557837994019877</v>
+        <v>0</v>
       </c>
       <c r="K164" s="59">
         <f t="shared" ca="1" si="56"/>
-        <v>39.359637719449125</v>
+        <v>0</v>
       </c>
       <c r="L164" s="56">
         <f t="shared" ca="1" si="62"/>
-        <v>42.054549500855501</v>
+        <v>0</v>
       </c>
       <c r="M164" s="59"/>
       <c r="N164" s="59"/>
@@ -13311,832 +13311,832 @@
       <c r="A168" s="49">
         <v>15</v>
       </c>
-      <c r="B168" s="67" t="str">
-        <f t="shared" ref="B168:P168" si="63">IF($A168&lt;=B$91,IF(B149=B111,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C168" s="67" t="str">
+      <c r="B168" s="61" t="str">
+        <f t="shared" ref="B168:L168" si="63">IF($A168&lt;=B$91,IF(B149=B111,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="D168" s="67" t="str">
+      <c r="D168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E168" s="67" t="str">
+      <c r="E168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="F168" s="67" t="str">
+      <c r="F168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G168" s="67" t="str">
+      <c r="G168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="H168" s="67" t="str">
+      <c r="H168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="I168" s="67" t="str">
+      <c r="I168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="J168" s="67" t="str">
+      <c r="J168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="K168" s="67" t="str">
+      <c r="K168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="L168" s="67" t="str">
+      <c r="L168" s="61" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="M168" s="67"/>
-      <c r="N168" s="67"/>
-      <c r="O168" s="67"/>
-      <c r="P168" s="67"/>
-      <c r="Q168" s="67"/>
+      <c r="M168" s="61"/>
+      <c r="N168" s="61"/>
+      <c r="O168" s="61"/>
+      <c r="P168" s="61"/>
+      <c r="Q168" s="61"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A169" s="49">
         <v>14</v>
       </c>
-      <c r="B169" s="67" t="str">
-        <f t="shared" ref="B169:O169" si="64">IF($A169&lt;=B$91,IF($G$2*(B131-$G$3)=B150,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C169" s="67" t="str">
+      <c r="B169" s="61" t="str">
+        <f t="shared" ref="B169:L169" si="64">IF($A169&lt;=B$91,IF($G$2*(B131-$G$3)=B150,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="D169" s="67" t="str">
+      <c r="D169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="E169" s="67" t="str">
+      <c r="E169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F169" s="67" t="str">
+      <c r="F169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="G169" s="67" t="str">
+      <c r="G169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="H169" s="67" t="str">
+      <c r="H169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="I169" s="67" t="str">
+      <c r="I169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="J169" s="67" t="str">
+      <c r="J169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="K169" s="67" t="str">
+      <c r="K169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="L169" s="67" t="str">
+      <c r="L169" s="61" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="M169" s="67"/>
-      <c r="N169" s="67"/>
-      <c r="O169" s="67"/>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="67"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="61"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A170" s="49">
         <v>13</v>
       </c>
-      <c r="B170" s="67" t="str">
-        <f t="shared" ref="B170:P183" si="65">IF($A170&lt;=B$91,IF($G$2*(B132-$G$3)=B151,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C170" s="67" t="str">
+      <c r="B170" s="61" t="str">
+        <f t="shared" ref="B170:L170" si="65">IF($A170&lt;=B$91,IF($G$2*(B132-$G$3)=B151,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="D170" s="67" t="str">
+      <c r="D170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="E170" s="67" t="str">
+      <c r="E170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="F170" s="67" t="str">
+      <c r="F170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="G170" s="67" t="str">
+      <c r="G170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="H170" s="67" t="str">
+      <c r="H170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="I170" s="67" t="str">
+      <c r="I170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="J170" s="67" t="str">
+      <c r="J170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="K170" s="67" t="str">
+      <c r="K170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="L170" s="67" t="str">
+      <c r="L170" s="61" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="M170" s="67"/>
-      <c r="N170" s="67"/>
-      <c r="O170" s="67"/>
-      <c r="P170" s="67"/>
-      <c r="Q170" s="67"/>
+      <c r="M170" s="61"/>
+      <c r="N170" s="61"/>
+      <c r="O170" s="61"/>
+      <c r="P170" s="61"/>
+      <c r="Q170" s="61"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A171" s="49">
         <v>12</v>
       </c>
-      <c r="B171" s="67" t="str">
-        <f t="shared" ref="B171:O171" si="66">IF($A171&lt;=B$91,IF($G$2*(B133-$G$3)=B152,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C171" s="67" t="str">
+      <c r="B171" s="61" t="str">
+        <f t="shared" ref="B171:L171" si="66">IF($A171&lt;=B$91,IF($G$2*(B133-$G$3)=B152,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="D171" s="67" t="str">
+      <c r="D171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="E171" s="67" t="str">
+      <c r="E171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="F171" s="67" t="str">
+      <c r="F171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="G171" s="67" t="str">
+      <c r="G171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="H171" s="67" t="str">
+      <c r="H171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="I171" s="67" t="str">
+      <c r="I171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="J171" s="67" t="str">
+      <c r="J171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="K171" s="67" t="str">
+      <c r="K171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="L171" s="67" t="str">
+      <c r="L171" s="61" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="M171" s="67"/>
-      <c r="N171" s="67"/>
-      <c r="O171" s="67"/>
-      <c r="P171" s="67"/>
-      <c r="Q171" s="67"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="61"/>
+      <c r="O171" s="61"/>
+      <c r="P171" s="61"/>
+      <c r="Q171" s="61"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A172" s="49">
         <v>11</v>
       </c>
-      <c r="B172" s="67" t="str">
-        <f t="shared" ref="B172:O172" si="67">IF($A172&lt;=B$91,IF($G$2*(B134-$G$3)=B153,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C172" s="67" t="str">
+      <c r="B172" s="61" t="str">
+        <f t="shared" ref="B172:L172" si="67">IF($A172&lt;=B$91,IF($G$2*(B134-$G$3)=B153,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="D172" s="67" t="str">
+      <c r="D172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="E172" s="67" t="str">
+      <c r="E172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="F172" s="67" t="str">
+      <c r="F172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="G172" s="67" t="str">
+      <c r="G172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="H172" s="67" t="str">
+      <c r="H172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="I172" s="67" t="str">
+      <c r="I172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="J172" s="67" t="str">
+      <c r="J172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="K172" s="67" t="str">
+      <c r="K172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="L172" s="67" t="str">
+      <c r="L172" s="61" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="M172" s="67"/>
-      <c r="N172" s="67"/>
-      <c r="O172" s="67"/>
-      <c r="P172" s="67"/>
-      <c r="Q172" s="67"/>
+      <c r="M172" s="61"/>
+      <c r="N172" s="61"/>
+      <c r="O172" s="61"/>
+      <c r="P172" s="61"/>
+      <c r="Q172" s="61"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A173" s="49">
         <v>10</v>
       </c>
-      <c r="B173" s="67" t="str">
-        <f t="shared" ref="B173:O173" si="68">IF($A173&lt;=B$91,IF($G$2*(B135-$G$3)=B154,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C173" s="67" t="str">
+      <c r="B173" s="61" t="str">
+        <f t="shared" ref="B173:K173" si="68">IF($A173&lt;=B$91,IF($G$2*(B135-$G$3)=B154,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="D173" s="67" t="str">
+      <c r="D173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E173" s="67" t="str">
+      <c r="E173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="F173" s="67" t="str">
+      <c r="F173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="G173" s="67" t="str">
+      <c r="G173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="H173" s="67" t="str">
+      <c r="H173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="I173" s="67" t="str">
+      <c r="I173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="J173" s="67" t="str">
+      <c r="J173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="K173" s="67" t="str">
+      <c r="K173" s="61" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="L173" s="67"/>
-      <c r="M173" s="67"/>
-      <c r="N173" s="67"/>
-      <c r="O173" s="67"/>
-      <c r="P173" s="67"/>
-      <c r="Q173" s="67"/>
+      <c r="L173" s="61"/>
+      <c r="M173" s="61"/>
+      <c r="N173" s="61"/>
+      <c r="O173" s="61"/>
+      <c r="P173" s="61"/>
+      <c r="Q173" s="61"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A174" s="49">
         <v>9</v>
       </c>
-      <c r="B174" s="67" t="str">
-        <f t="shared" ref="B174:O174" si="69">IF($A174&lt;=B$91,IF($G$2*(B136-$G$3)=B155,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C174" s="67" t="str">
+      <c r="B174" s="61" t="str">
+        <f t="shared" ref="B174:K174" si="69">IF($A174&lt;=B$91,IF($G$2*(B136-$G$3)=B155,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="D174" s="67" t="str">
+      <c r="D174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="E174" s="67" t="str">
+      <c r="E174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="F174" s="67" t="str">
+      <c r="F174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="G174" s="67" t="str">
+      <c r="G174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="H174" s="67" t="str">
+      <c r="H174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I174" s="67" t="str">
+      <c r="I174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="J174" s="67" t="str">
+      <c r="J174" s="61" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="K174" s="67">
+      <c r="K174" s="61">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="L174" s="67"/>
-      <c r="M174" s="67"/>
-      <c r="N174" s="67"/>
-      <c r="O174" s="67"/>
-      <c r="P174" s="67"/>
-      <c r="Q174" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="L174" s="61"/>
+      <c r="M174" s="61"/>
+      <c r="N174" s="61"/>
+      <c r="O174" s="61"/>
+      <c r="P174" s="61"/>
+      <c r="Q174" s="61"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A175" s="49">
         <v>8</v>
       </c>
-      <c r="B175" s="67" t="str">
-        <f t="shared" ref="B175:O175" si="70">IF($A175&lt;=B$91,IF($G$2*(B137-$G$3)=B156,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C175" s="67" t="str">
+      <c r="B175" s="61" t="str">
+        <f t="shared" ref="B175:K175" si="70">IF($A175&lt;=B$91,IF($G$2*(B137-$G$3)=B156,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="D175" s="67" t="str">
+      <c r="D175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="E175" s="67" t="str">
+      <c r="E175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="F175" s="67" t="str">
+      <c r="F175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="G175" s="67" t="str">
+      <c r="G175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="H175" s="67" t="str">
+      <c r="H175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="I175" s="67" t="str">
+      <c r="I175" s="61" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="J175" s="67">
+      <c r="J175" s="61">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="K175" s="67">
+        <v>1</v>
+      </c>
+      <c r="K175" s="61">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="L175" s="67"/>
-      <c r="M175" s="67"/>
-      <c r="N175" s="67"/>
-      <c r="O175" s="67"/>
-      <c r="P175" s="67"/>
-      <c r="Q175" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
+      <c r="O175" s="61"/>
+      <c r="P175" s="61"/>
+      <c r="Q175" s="61"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A176" s="49">
         <v>7</v>
       </c>
-      <c r="B176" s="67" t="str">
-        <f t="shared" ref="B176:O176" si="71">IF($A176&lt;=B$91,IF($G$2*(B138-$G$3)=B157,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C176" s="67" t="str">
+      <c r="B176" s="61" t="str">
+        <f t="shared" ref="B176:K176" si="71">IF($A176&lt;=B$91,IF($G$2*(B138-$G$3)=B157,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="D176" s="67" t="str">
+      <c r="D176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="E176" s="67" t="str">
+      <c r="E176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="F176" s="67" t="str">
+      <c r="F176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="G176" s="67" t="str">
+      <c r="G176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="H176" s="67" t="str">
+      <c r="H176" s="61" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="I176" s="67">
+      <c r="I176" s="61">
         <f t="shared" ca="1" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="67">
+        <v>1</v>
+      </c>
+      <c r="J176" s="61">
         <f t="shared" ca="1" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="K176" s="67">
+        <v>1</v>
+      </c>
+      <c r="K176" s="61">
         <f t="shared" ca="1" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="L176" s="67"/>
-      <c r="M176" s="67"/>
-      <c r="N176" s="67"/>
-      <c r="O176" s="67"/>
-      <c r="P176" s="67"/>
-      <c r="Q176" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="L176" s="61"/>
+      <c r="M176" s="61"/>
+      <c r="N176" s="61"/>
+      <c r="O176" s="61"/>
+      <c r="P176" s="61"/>
+      <c r="Q176" s="61"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A177" s="49">
         <v>6</v>
       </c>
-      <c r="B177" s="67" t="str">
-        <f t="shared" ref="B177:O177" si="72">IF($A177&lt;=B$91,IF($G$2*(B139-$G$3)=B158,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C177" s="67" t="str">
+      <c r="B177" s="61" t="str">
+        <f t="shared" ref="B177:K177" si="72">IF($A177&lt;=B$91,IF($G$2*(B139-$G$3)=B158,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C177" s="61" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="D177" s="67" t="str">
+      <c r="D177" s="61" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="E177" s="67" t="str">
+      <c r="E177" s="61" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="F177" s="67" t="str">
+      <c r="F177" s="61" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="G177" s="67" t="str">
+      <c r="G177" s="61" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="H177" s="67">
+      <c r="H177" s="61">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="I177" s="67">
+        <v>1</v>
+      </c>
+      <c r="I177" s="61">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="67">
+        <v>1</v>
+      </c>
+      <c r="J177" s="61">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K177" s="67">
+        <v>1</v>
+      </c>
+      <c r="K177" s="61">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="L177" s="67"/>
-      <c r="M177" s="67"/>
-      <c r="N177" s="67"/>
-      <c r="O177" s="67"/>
-      <c r="P177" s="67"/>
-      <c r="Q177" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="L177" s="61"/>
+      <c r="M177" s="61"/>
+      <c r="N177" s="61"/>
+      <c r="O177" s="61"/>
+      <c r="P177" s="61"/>
+      <c r="Q177" s="61"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A178" s="49">
         <v>5</v>
       </c>
-      <c r="B178" s="67" t="str">
-        <f t="shared" ref="B178:O178" si="73">IF($A178&lt;=B$91,IF($G$2*(B140-$G$3)=B159,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C178" s="67" t="str">
+      <c r="B178" s="61" t="str">
+        <f t="shared" ref="B178:K178" si="73">IF($A178&lt;=B$91,IF($G$2*(B140-$G$3)=B159,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C178" s="61" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="D178" s="67" t="str">
+      <c r="D178" s="61" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="E178" s="67" t="str">
+      <c r="E178" s="61" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="F178" s="67" t="str">
+      <c r="F178" s="61" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="G178" s="67">
-        <f t="shared" ca="1" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="H178" s="67">
-        <f t="shared" ca="1" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="I178" s="67">
-        <f t="shared" ca="1" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="67">
-        <f t="shared" ca="1" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="K178" s="67">
+      <c r="G178" s="61">
         <f t="shared" ca="1" si="73"/>
         <v>1</v>
       </c>
-      <c r="L178" s="67"/>
-      <c r="M178" s="67"/>
-      <c r="N178" s="67"/>
-      <c r="O178" s="67"/>
-      <c r="P178" s="67"/>
-      <c r="Q178" s="67"/>
+      <c r="H178" s="61">
+        <f t="shared" ca="1" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="I178" s="61">
+        <f t="shared" ca="1" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="J178" s="61">
+        <f t="shared" ca="1" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="K178" s="61">
+        <f t="shared" ca="1" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
+      <c r="N178" s="61"/>
+      <c r="O178" s="61"/>
+      <c r="P178" s="61"/>
+      <c r="Q178" s="61"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A179" s="49">
         <v>4</v>
       </c>
-      <c r="B179" s="67" t="str">
-        <f t="shared" ref="B179:O179" si="74">IF($A179&lt;=B$91,IF($G$2*(B141-$G$3)=B160,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C179" s="67" t="str">
+      <c r="B179" s="61" t="str">
+        <f t="shared" ref="B179:K179" si="74">IF($A179&lt;=B$91,IF($G$2*(B141-$G$3)=B160,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C179" s="61" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="D179" s="67" t="str">
+      <c r="D179" s="61" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="E179" s="67" t="str">
+      <c r="E179" s="61" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="F179" s="67">
+      <c r="F179" s="61">
         <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
-      <c r="G179" s="67">
+      <c r="G179" s="61">
         <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
-      <c r="H179" s="67">
+      <c r="H179" s="61">
         <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
-      <c r="I179" s="67">
+      <c r="I179" s="61">
         <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
-      <c r="J179" s="67">
+      <c r="J179" s="61">
         <f t="shared" ca="1" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="K179" s="67">
+        <v>0</v>
+      </c>
+      <c r="K179" s="61">
         <f t="shared" ca="1" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="L179" s="67"/>
-      <c r="M179" s="67"/>
-      <c r="N179" s="67"/>
-      <c r="O179" s="67"/>
-      <c r="P179" s="67"/>
-      <c r="Q179" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
+      <c r="N179" s="61"/>
+      <c r="O179" s="61"/>
+      <c r="P179" s="61"/>
+      <c r="Q179" s="61"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A180" s="49">
         <v>3</v>
       </c>
-      <c r="B180" s="67" t="str">
-        <f t="shared" ref="B180:O180" si="75">IF($A180&lt;=B$91,IF($G$2*(B142-$G$3)=B161,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C180" s="67" t="str">
+      <c r="B180" s="61" t="str">
+        <f t="shared" ref="B180:K180" si="75">IF($A180&lt;=B$91,IF($G$2*(B142-$G$3)=B161,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C180" s="61" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="D180" s="67" t="str">
+      <c r="D180" s="61" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="E180" s="67">
+      <c r="E180" s="61">
         <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
-      <c r="F180" s="67">
+      <c r="F180" s="61">
         <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
-      <c r="G180" s="67">
+      <c r="G180" s="61">
         <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
-      <c r="H180" s="67">
+      <c r="H180" s="61">
         <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
-      <c r="I180" s="67">
+      <c r="I180" s="61">
         <f t="shared" ca="1" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="J180" s="67">
+        <v>0</v>
+      </c>
+      <c r="J180" s="61">
         <f t="shared" ca="1" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="K180" s="67">
+        <v>0</v>
+      </c>
+      <c r="K180" s="61">
         <f t="shared" ca="1" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="L180" s="67"/>
-      <c r="M180" s="67"/>
-      <c r="N180" s="67"/>
-      <c r="O180" s="67"/>
-      <c r="P180" s="67"/>
-      <c r="Q180" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="L180" s="61"/>
+      <c r="M180" s="61"/>
+      <c r="N180" s="61"/>
+      <c r="O180" s="61"/>
+      <c r="P180" s="61"/>
+      <c r="Q180" s="61"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A181" s="49">
         <v>2</v>
       </c>
-      <c r="B181" s="67" t="str">
-        <f t="shared" ref="B181:O181" si="76">IF($A181&lt;=B$91,IF($G$2*(B143-$G$3)=B162,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C181" s="67" t="str">
+      <c r="B181" s="61" t="str">
+        <f t="shared" ref="B181:K181" si="76">IF($A181&lt;=B$91,IF($G$2*(B143-$G$3)=B162,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C181" s="61" t="str">
         <f t="shared" si="76"/>
         <v/>
       </c>
-      <c r="D181" s="67">
+      <c r="D181" s="61">
         <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
-      <c r="E181" s="67">
+      <c r="E181" s="61">
         <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
-      <c r="F181" s="67">
+      <c r="F181" s="61">
         <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
-      <c r="G181" s="67">
+      <c r="G181" s="61">
         <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
-      <c r="H181" s="67">
+      <c r="H181" s="61">
         <f t="shared" ca="1" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="I181" s="67">
+        <v>0</v>
+      </c>
+      <c r="I181" s="61">
         <f ca="1">IF($A181&lt;=I$91,IF($G$2*(I143-$G$3)=I162,1,0),"")</f>
-        <v>1</v>
-      </c>
-      <c r="J181" s="67">
+        <v>0</v>
+      </c>
+      <c r="J181" s="61">
         <f t="shared" ca="1" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="K181" s="67">
+        <v>0</v>
+      </c>
+      <c r="K181" s="61">
         <f t="shared" ca="1" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="L181" s="67"/>
-      <c r="M181" s="67"/>
-      <c r="N181" s="67"/>
-      <c r="O181" s="67"/>
-      <c r="P181" s="67"/>
-      <c r="Q181" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="L181" s="61"/>
+      <c r="M181" s="61"/>
+      <c r="N181" s="61"/>
+      <c r="O181" s="61"/>
+      <c r="P181" s="61"/>
+      <c r="Q181" s="61"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A182" s="49">
         <v>1</v>
       </c>
-      <c r="B182" s="67" t="str">
-        <f t="shared" ref="B182:O182" si="77">IF($A182&lt;=B$91,IF($G$2*(B144-$G$3)=B163,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C182" s="67">
+      <c r="B182" s="61" t="str">
+        <f t="shared" ref="B182:K182" si="77">IF($A182&lt;=B$91,IF($G$2*(B144-$G$3)=B163,1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C182" s="61">
         <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
-      <c r="D182" s="67">
+      <c r="D182" s="61">
         <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
-      <c r="E182" s="67">
+      <c r="E182" s="61">
         <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
-      <c r="F182" s="67">
+      <c r="F182" s="61">
         <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
-      <c r="G182" s="67">
+      <c r="G182" s="61">
         <f t="shared" ca="1" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="H182" s="67">
+        <v>0</v>
+      </c>
+      <c r="H182" s="61">
         <f t="shared" ca="1" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="I182" s="67">
+        <v>0</v>
+      </c>
+      <c r="I182" s="61">
         <f t="shared" ca="1" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="J182" s="67">
+        <v>0</v>
+      </c>
+      <c r="J182" s="61">
         <f t="shared" ca="1" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="K182" s="67">
+        <v>0</v>
+      </c>
+      <c r="K182" s="61">
         <f t="shared" ca="1" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="L182" s="67"/>
-      <c r="M182" s="67"/>
-      <c r="N182" s="67"/>
-      <c r="O182" s="67"/>
-      <c r="P182" s="67"/>
-      <c r="Q182" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="L182" s="61"/>
+      <c r="M182" s="61"/>
+      <c r="N182" s="61"/>
+      <c r="O182" s="61"/>
+      <c r="P182" s="61"/>
+      <c r="Q182" s="61"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A183" s="49">
         <v>0</v>
       </c>
-      <c r="B183" s="67">
-        <f t="shared" ref="B183:O183" ca="1" si="78">IF($A183&lt;=B$91,IF($G$2*(B145-$G$3)=B164,1,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C183" s="67">
+      <c r="B183" s="61">
+        <f t="shared" ref="B183:K183" ca="1" si="78">IF($A183&lt;=B$91,IF($G$2*(B145-$G$3)=B164,1,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C183" s="61">
         <f t="shared" ca="1" si="78"/>
         <v>0</v>
       </c>
-      <c r="D183" s="67">
+      <c r="D183" s="61">
         <f t="shared" ca="1" si="78"/>
         <v>0</v>
       </c>
-      <c r="E183" s="67">
+      <c r="E183" s="61">
         <f t="shared" ca="1" si="78"/>
         <v>0</v>
       </c>
-      <c r="F183" s="67">
+      <c r="F183" s="61">
         <f ca="1">IF($A183&lt;=F$91,IF($G$2*(F145-$G$3)=F164,1,0),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G183" s="67">
+        <v>0</v>
+      </c>
+      <c r="G183" s="61">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="H183" s="67">
+        <v>0</v>
+      </c>
+      <c r="H183" s="61">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="I183" s="67">
+        <v>0</v>
+      </c>
+      <c r="I183" s="61">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="J183" s="67">
+        <v>0</v>
+      </c>
+      <c r="J183" s="61">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="K183" s="67">
+        <v>0</v>
+      </c>
+      <c r="K183" s="61">
         <f t="shared" ca="1" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="L183" s="67"/>
-      <c r="M183" s="67"/>
-      <c r="N183" s="67"/>
-      <c r="O183" s="67"/>
-      <c r="P183" s="67"/>
-      <c r="Q183" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="L183" s="61"/>
+      <c r="M183" s="61"/>
+      <c r="N183" s="61"/>
+      <c r="O183" s="61"/>
+      <c r="P183" s="61"/>
+      <c r="Q183" s="61"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A185" s="53" t="s">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="Q206" s="56">
         <f ca="1">MAX(1*(Q187-$G$3),0)</f>
-        <v>68.773150758236852</v>
+        <v>78.773150758236852</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.15">
@@ -15165,11 +15165,11 @@
       </c>
       <c r="P207" s="59">
         <f t="shared" ca="1" si="82"/>
-        <v>61.989661266767605</v>
+        <v>71.986328488928109</v>
       </c>
       <c r="Q207" s="56">
         <f t="shared" ref="Q207:Q221" ca="1" si="83">MAX(1*(Q188-$G$3),0)</f>
-        <v>55.448177847542979</v>
+        <v>65.448177847542979</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.15">
@@ -15194,15 +15194,15 @@
       </c>
       <c r="O208" s="59">
         <f t="shared" ca="1" si="84"/>
-        <v>55.466346539791445</v>
+        <v>65.45968209485325</v>
       </c>
       <c r="P208" s="59">
         <f t="shared" ca="1" si="84"/>
-        <v>49.173032669786807</v>
+        <v>59.169699891947303</v>
       </c>
       <c r="Q208" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>43.116390447747449</v>
+        <v>53.116390447747449</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.15">
@@ -15223,19 +15223,19 @@
       </c>
       <c r="N209" s="59">
         <f t="shared" ca="1" si="85"/>
-        <v>49.193280514437177</v>
+        <v>59.183285512770922</v>
       </c>
       <c r="O209" s="59">
         <f t="shared" ca="1" si="85"/>
-        <v>43.138669050772663</v>
+        <v>53.13200460583446</v>
       </c>
       <c r="P209" s="59">
         <f t="shared" ca="1" si="85"/>
-        <v>37.31169981009571</v>
+        <v>47.308367032256207</v>
       </c>
       <c r="Q209" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>31.703760831689408</v>
+        <v>41.703760831689408</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -15252,23 +15252,23 @@
       </c>
       <c r="M210" s="59">
         <f t="shared" ca="1" si="86"/>
-        <v>43.160915804751305</v>
+        <v>53.147591356357552</v>
       </c>
       <c r="N210" s="59">
         <f t="shared" ca="1" si="86"/>
-        <v>37.335900773476261</v>
+        <v>47.32590577181</v>
       </c>
       <c r="O210" s="59">
         <f t="shared" ca="1" si="86"/>
-        <v>31.729843010622105</v>
+        <v>41.723178565683916</v>
       </c>
       <c r="P210" s="59">
         <f t="shared" ca="1" si="86"/>
-        <v>26.334459099420034</v>
+        <v>36.331126321580527</v>
       </c>
       <c r="Q210" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>21.14177897693537</v>
+        <v>31.14177897693537</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.15">
@@ -15276,7 +15276,7 @@
         <v>10</v>
       </c>
       <c r="B211" s="59" t="str">
-        <f t="shared" ref="B211:K211" si="87">IF($A211 &lt;= B$34, ($B$10*C205+$B$11*C211)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B211:J211" si="87">IF($A211 &lt;= B$34, ($B$10*C205+$B$11*C211)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C211" s="59" t="str">
@@ -15317,27 +15317,27 @@
       </c>
       <c r="L211" s="59">
         <f t="shared" ca="1" si="88"/>
-        <v>37.36006925527024</v>
+        <v>47.343416469779612</v>
       </c>
       <c r="M211" s="59">
         <f t="shared" ca="1" si="88"/>
-        <v>31.755892072860888</v>
+        <v>41.742567624467135</v>
       </c>
       <c r="N211" s="59">
         <f t="shared" ca="1" si="88"/>
-        <v>26.362318533258517</v>
+        <v>36.352323531592262</v>
       </c>
       <c r="O211" s="59">
         <f t="shared" ca="1" si="88"/>
-        <v>21.171381229774742</v>
+        <v>31.164716784836546</v>
       </c>
       <c r="P211" s="59">
         <f t="shared" ca="1" si="88"/>
-        <v>16.17541415518653</v>
+        <v>26.172081377347023</v>
       </c>
       <c r="Q211" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>11.367041300073353</v>
+        <v>21.367041300073353</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.15">
@@ -15382,31 +15382,31 @@
       </c>
       <c r="K212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>31.781908045720105</v>
+        <v>41.761928032393421</v>
       </c>
       <c r="L212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>26.390144266223512</v>
+        <v>36.373491480732895</v>
       </c>
       <c r="M212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>21.200949192757761</v>
+        <v>31.187624744364012</v>
       </c>
       <c r="N212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>16.206659373011082</v>
+        <v>26.196664371344824</v>
       </c>
       <c r="O212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>11.399901255824371</v>
+        <v>21.393236810886179</v>
       </c>
       <c r="P212" s="59">
         <f t="shared" ca="1" si="89"/>
-        <v>6.773580224498887</v>
+        <v>16.770247446659386</v>
       </c>
       <c r="Q212" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>2.3208700449637121</v>
+        <v>12.320870044963712</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.15">
@@ -15447,35 +15447,35 @@
       </c>
       <c r="J213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>26.470302195546125</v>
+        <v>36.394630193547023</v>
       </c>
       <c r="K213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>21.333695182818008</v>
+        <v>31.2105028802631</v>
       </c>
       <c r="L213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>16.441299527988726</v>
+        <v>26.221216976064937</v>
       </c>
       <c r="M213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>11.833682642407446</v>
+        <v>21.419401387605276</v>
       </c>
       <c r="N213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>7.5982382983552608</v>
+        <v>16.797963863034678</v>
       </c>
       <c r="O213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>3.9143729754279279</v>
+        <v>12.350080443685677</v>
       </c>
       <c r="P213" s="59">
         <f t="shared" ca="1" si="90"/>
-        <v>1.1425780656973441</v>
+        <v>8.0691853147899995</v>
       </c>
       <c r="Q213" s="56">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>3.9489610401337387</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.15">
@@ -15512,35 +15512,35 @@
       </c>
       <c r="I214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>21.526809809516344</v>
+        <v>31.250031291459631</v>
       </c>
       <c r="J214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>16.74414595044718</v>
+        <v>26.27861537510719</v>
       </c>
       <c r="K214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>12.301781055003142</v>
+        <v>21.510333436725645</v>
       </c>
       <c r="L214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>8.2931750658147259</v>
+        <v>16.953365416112128</v>
       </c>
       <c r="M214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>4.863172373064474</v>
+        <v>12.63098621482988</v>
       </c>
       <c r="N214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>2.212458403020396</v>
+        <v>8.5959520944891352</v>
       </c>
       <c r="O214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>0.5624979472873054</v>
+        <v>4.9588662723020116</v>
       </c>
       <c r="P214" s="59">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.9440969030304867</v>
       </c>
       <c r="Q214" s="56">
         <f t="shared" ca="1" si="83"/>
@@ -15577,35 +15577,35 @@
       </c>
       <c r="H215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>17.072245928651149</v>
+        <v>26.368572579450415</v>
       </c>
       <c r="I215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>12.761076498343078</v>
+        <v>21.6492821559094</v>
       </c>
       <c r="J215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>8.9045789341432044</v>
+        <v>17.171535892155678</v>
       </c>
       <c r="K215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>5.6140310270399505</v>
+        <v>12.972762894289358</v>
       </c>
       <c r="L215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>3.0180728054098336</v>
+        <v>9.1187981129838978</v>
       </c>
       <c r="M215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>1.2297052683823446</v>
+        <v>5.716816912827567</v>
       </c>
       <c r="N215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>0.27692107016716005</v>
+        <v>2.9268693892652782</v>
       </c>
       <c r="O215" s="59">
         <f t="shared" ca="1" si="92"/>
-        <v>0</v>
+        <v>0.95709041693780028</v>
       </c>
       <c r="P215" s="59">
         <f t="shared" ca="1" si="92"/>
@@ -15642,35 +15642,35 @@
       </c>
       <c r="G216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>13.202730592989127</v>
+        <v>21.819828688065158</v>
       </c>
       <c r="H216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>9.4567077783335129</v>
+        <v>17.420392460431376</v>
       </c>
       <c r="I216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>6.2566013186723382</v>
+        <v>13.328429494346178</v>
       </c>
       <c r="J216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>3.6913068162590625</v>
+        <v>9.6081145568218727</v>
       </c>
       <c r="K216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>1.8280602238499948</v>
+        <v>6.3496166092120383</v>
       </c>
       <c r="L216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>0.67455962348776044</v>
+        <v>3.666775792899557</v>
       </c>
       <c r="M216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>0.13632988257529918</v>
+        <v>1.6799740425318841</v>
       </c>
       <c r="N216" s="59">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>0.47118127947545402</v>
       </c>
       <c r="O216" s="59">
         <f t="shared" ca="1" si="93"/>
@@ -15707,35 +15707,35 @@
       </c>
       <c r="F217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>9.9640082516547004</v>
+        <v>17.684012401736403</v>
       </c>
       <c r="G217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>6.8279334886721434</v>
+        <v>13.682534252425061</v>
       </c>
       <c r="H217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>4.2816477928254626</v>
+        <v>10.064577089094115</v>
       </c>
       <c r="I217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>2.3681094681941879</v>
+        <v>6.9041840069043676</v>
       </c>
       <c r="J217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>1.0857308334168754</v>
+        <v>4.2850222448027253</v>
       </c>
       <c r="K217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>0.36614172870854578</v>
+        <v>2.2845052042269622</v>
       </c>
       <c r="L217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>6.711600844159582E-2</v>
+        <v>0.9447512863522568</v>
       </c>
       <c r="M217" s="59">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>0.23196533389024004</v>
       </c>
       <c r="N217" s="59">
         <f t="shared" ca="1" si="94"/>
@@ -15772,35 +15772,35 @@
       </c>
       <c r="E218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>7.3477013896336505</v>
+        <v>14.029404255649565</v>
       </c>
       <c r="F218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>4.8138546041904728</v>
+        <v>10.492454735051181</v>
       </c>
       <c r="G218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>2.862701483564825</v>
+        <v>7.4039265497578066</v>
       </c>
       <c r="H218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>1.4877399296127327</v>
+        <v>4.8270888271390753</v>
       </c>
       <c r="I218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>0.63447080570174352</v>
+        <v>2.8147979824762346</v>
       </c>
       <c r="J218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>0.19701775796333756</v>
+        <v>1.3900485752779408</v>
       </c>
       <c r="K218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>3.3041608369642331E-2</v>
+        <v>0.52304619419124676</v>
       </c>
       <c r="L218" s="59">
         <f t="shared" ca="1" si="95"/>
-        <v>0</v>
+        <v>0.11419790740988818</v>
       </c>
       <c r="M218" s="59">
         <f t="shared" ca="1" si="95"/>
@@ -15837,35 +15837,35 @@
       </c>
       <c r="D219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>5.3023788150350546</v>
+        <v>10.895878204485198</v>
       </c>
       <c r="E219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>3.3212300003120494</v>
+        <v>7.8624903814627478</v>
       </c>
       <c r="F219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>1.8750776029245009</v>
+        <v>5.3157295194444201</v>
       </c>
       <c r="G219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>0.91799112350701795</v>
+        <v>3.2929872294481903</v>
       </c>
       <c r="H219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>0.36575144645018176</v>
+        <v>1.8065700297688896</v>
       </c>
       <c r="I219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>0.1052460336238224</v>
+        <v>0.82944585978644858</v>
       </c>
       <c r="J219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>1.6266579449563875E-2</v>
+        <v>0.28602271800141987</v>
       </c>
       <c r="K219" s="59">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>5.6220306017657505E-2</v>
       </c>
       <c r="L219" s="59">
         <f t="shared" ca="1" si="96"/>
@@ -15902,35 +15902,35 @@
       </c>
       <c r="C220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>3.750414491195559</v>
+        <v>8.2886474924739471</v>
       </c>
       <c r="D220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>2.2469650819058313</v>
+        <v>5.7642256346478016</v>
       </c>
       <c r="E220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>1.2060527452135705</v>
+        <v>3.7320089772042411</v>
       </c>
       <c r="F220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>0.55767205091412142</v>
+        <v>2.1977335591308913</v>
       </c>
       <c r="G220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>0.20841102608188006</v>
+        <v>1.1364229287578056</v>
       </c>
       <c r="H220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>5.5876258512764912E-2</v>
+        <v>0.48690755260732521</v>
       </c>
       <c r="I220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>8.0081333822745165E-3</v>
+        <v>0.15485320169907407</v>
       </c>
       <c r="J220" s="59">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>2.7677589549643319E-2</v>
       </c>
       <c r="K220" s="59">
         <f t="shared" ca="1" si="97"/>
@@ -15967,35 +15967,35 @@
       </c>
       <c r="B221" s="59">
         <f t="shared" ref="B221:P221" ca="1" si="98">IF($A221 &lt;= B$34, ($B$10*C220+$B$11*C221)/EXP($B$6 * $B$3/$B$5),"")</f>
-        <v>2.6040771329665637</v>
+        <v>6.1811204218573375</v>
       </c>
       <c r="C221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>1.4934655382510746</v>
+        <v>4.1401901328645776</v>
       </c>
       <c r="D221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>0.76330556633299396</v>
+        <v>2.5670641462151642</v>
       </c>
       <c r="E221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>0.33419739593673542</v>
+        <v>1.4383729036243151</v>
       </c>
       <c r="F221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>0.1175734172242906</v>
+        <v>0.7024895466596176</v>
       </c>
       <c r="G221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>2.9508458267588761E-2</v>
+        <v>0.28189369276277376</v>
       </c>
       <c r="H221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>3.9424514826329323E-3</v>
+        <v>8.3148365844163519E-2</v>
       </c>
       <c r="I221" s="59">
         <f t="shared" ca="1" si="98"/>
-        <v>0</v>
+        <v>1.3625841222527794E-2</v>
       </c>
       <c r="J221" s="59">
         <f t="shared" ca="1" si="98"/>
@@ -17168,7 +17168,7 @@
         <v>10</v>
       </c>
       <c r="B249" s="59" t="str">
-        <f t="shared" ref="B249:K249" si="107">IF($A249 &lt;= B$34, ($B$10*C243+$B$11*C249)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B249:J249" si="107">IF($A249 &lt;= B$34, ($B$10*C243+$B$11*C249)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C249" s="59" t="str">
@@ -17339,35 +17339,35 @@
       </c>
       <c r="J251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>5.2365869727484728E-2</v>
+        <v>0</v>
       </c>
       <c r="K251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>0.10321228922823039</v>
+        <v>0</v>
       </c>
       <c r="L251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>0.20342976643316729</v>
+        <v>0</v>
       </c>
       <c r="M251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>0.40095680640841586</v>
+        <v>0</v>
       </c>
       <c r="N251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>0.79027943365432896</v>
+        <v>0</v>
       </c>
       <c r="O251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>1.5576280868040606</v>
+        <v>0</v>
       </c>
       <c r="P251" s="59">
         <f t="shared" ca="1" si="110"/>
-        <v>3.070059973067842</v>
+        <v>0</v>
       </c>
       <c r="Q251" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>6.0510389598662613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.15">
@@ -17404,39 +17404,39 @@
       </c>
       <c r="I252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>0.26682744956029508</v>
+        <v>1.6680074198583108E-2</v>
       </c>
       <c r="J252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>0.47510060174752389</v>
+        <v>3.2876158679150336E-2</v>
       </c>
       <c r="K252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>0.83626598633862426</v>
+        <v>6.4798381387804888E-2</v>
       </c>
       <c r="L252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>1.4508734344918943</v>
+        <v>0.12771657027991734</v>
       </c>
       <c r="M252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>2.4705890211519717</v>
+        <v>0.25172731131112652</v>
       </c>
       <c r="N252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>4.1026617994835286</v>
+        <v>0.4961504926185199</v>
       </c>
       <c r="O252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>6.5748718922128528</v>
+        <v>0.97790466216575078</v>
       </c>
       <c r="P252" s="59">
         <f t="shared" ca="1" si="111"/>
-        <v>9.9800047216204444</v>
+        <v>1.9274344024904335</v>
       </c>
       <c r="Q252" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>13.798942289196262</v>
+        <v>3.7989422891962619</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.15">
@@ -17469,43 +17469,43 @@
       </c>
       <c r="H253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>0.77205976634821527</v>
+        <v>9.8341462113761186E-2</v>
       </c>
       <c r="I253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>1.262807516475253</v>
+        <v>0.17764431673657494</v>
       </c>
       <c r="J253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>2.0279703815508769</v>
+        <v>0.31823347183496342</v>
       </c>
       <c r="K253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>3.1856455638082677</v>
+        <v>0.56435744438435387</v>
       </c>
       <c r="L253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>4.8710345310082248</v>
+        <v>0.98841262407290797</v>
       </c>
       <c r="M253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>7.2034515086407973</v>
+        <v>1.7038876014797681</v>
       </c>
       <c r="N253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>10.216963553921499</v>
+        <v>2.8769068746858708</v>
       </c>
       <c r="O253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>13.757695070203686</v>
+        <v>4.7214499320796781</v>
       </c>
       <c r="P253" s="59">
         <f t="shared" ca="1" si="112"/>
-        <v>17.432327517536933</v>
+        <v>7.4356602953764348</v>
       </c>
       <c r="Q253" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>20.969350611361492</v>
+        <v>10.969350611361492</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.15">
@@ -17534,47 +17534,47 @@
       </c>
       <c r="G254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>1.6717429893533784</v>
+        <v>0.32211892388418506</v>
       </c>
       <c r="H254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>2.5458281216166063</v>
+        <v>0.53946784868074982</v>
       </c>
       <c r="I254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>3.7924500677091779</v>
+        <v>0.89090938607801928</v>
       </c>
       <c r="J254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>5.5070636824854997</v>
+        <v>1.4471775553199253</v>
       </c>
       <c r="K254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>7.763216041002992</v>
+        <v>2.3047524396917116</v>
       </c>
       <c r="L254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>10.574677603845192</v>
+        <v>3.5835465587476061</v>
       </c>
       <c r="M254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>13.852815904651276</v>
+        <v>5.4097845130016093</v>
       </c>
       <c r="N254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>17.389881586044122</v>
+        <v>7.8710578671858276</v>
       </c>
       <c r="O254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>20.925713654573286</v>
+        <v>10.932378099511476</v>
       </c>
       <c r="P254" s="59">
         <f t="shared" ca="1" si="113"/>
-        <v>24.329186593335717</v>
+        <v>14.332519371175218</v>
       </c>
       <c r="Q254" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>27.605307891822605</v>
+        <v>17.605307891822605</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.15">
@@ -17599,51 +17599,51 @@
       </c>
       <c r="F255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>3.0188932797708858</v>
+        <v>0.77549695638228022</v>
       </c>
       <c r="G255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>4.3280527452037569</v>
+        <v>1.2159313484114527</v>
       </c>
       <c r="H255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>6.0602365826432525</v>
+        <v>1.8731209238781874</v>
       </c>
       <c r="I255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>8.2647121151118057</v>
+        <v>2.8274177965169853</v>
       </c>
       <c r="J255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>10.945962015998665</v>
+        <v>4.1685595596561269</v>
       </c>
       <c r="K255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>14.041456844522878</v>
+        <v>5.9798003333679697</v>
       </c>
       <c r="L255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>17.41459022522201</v>
+        <v>8.3088782886232888</v>
       </c>
       <c r="M255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>20.88211566509646</v>
+        <v>11.12740544738045</v>
       </c>
       <c r="N255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>24.284442091933901</v>
+        <v>14.294437093600155</v>
       </c>
       <c r="O255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>27.559459317897581</v>
+        <v>17.566123762835772</v>
       </c>
       <c r="P255" s="59">
         <f t="shared" ca="1" si="114"/>
-        <v>30.711983798187369</v>
+        <v>20.715316576026868</v>
       </c>
       <c r="Q255" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>33.746649786116222</v>
+        <v>23.746649786116222</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.15">
@@ -17664,55 +17664,55 @@
       </c>
       <c r="E256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>4.8121274205451217</v>
+        <v>1.5337503931211347</v>
       </c>
       <c r="F256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>6.5553120720537876</v>
+        <v>2.2705117294441872</v>
       </c>
       <c r="G256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>8.7207881844459756</v>
+        <v>3.2952910900937362</v>
       </c>
       <c r="H256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>11.308121991212674</v>
+        <v>4.6774259337052966</v>
       </c>
       <c r="I256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>14.268653128142217</v>
+        <v>6.4756114476117057</v>
       </c>
       <c r="J256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>17.50212313858535</v>
+        <v>8.718460088171561</v>
       </c>
       <c r="K256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>20.871598222036425</v>
+        <v>11.381582821184704</v>
       </c>
       <c r="L256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>24.239736918823482</v>
+        <v>14.370587611723987</v>
       </c>
       <c r="M256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>27.513650448366793</v>
+        <v>17.526974896760542</v>
       </c>
       <c r="N256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>30.665112052277721</v>
+        <v>20.675107053943972</v>
       </c>
       <c r="O256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>33.698754439374191</v>
+        <v>23.705418884312373</v>
       </c>
       <c r="P256" s="59">
         <f t="shared" ca="1" si="115"/>
-        <v>36.619035067542711</v>
+        <v>26.622367845382207</v>
       </c>
       <c r="Q256" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>39.43024277331898</v>
+        <v>29.43024277331898</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.15">
@@ -17729,59 +17729,59 @@
       </c>
       <c r="D257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>7.0067416869092636</v>
+        <v>2.6434806562743591</v>
       </c>
       <c r="E257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>9.140837950704876</v>
+        <v>3.7220184384156729</v>
       </c>
       <c r="F257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>11.655648191529362</v>
+        <v>5.1328996345789717</v>
       </c>
       <c r="G257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>14.511078736503629</v>
+        <v>6.9193526818995768</v>
       </c>
       <c r="H257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>17.628526494915832</v>
+        <v>9.0993001232008162</v>
       </c>
       <c r="I257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>20.900282504664442</v>
+        <v>11.651113473522063</v>
       </c>
       <c r="J257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>24.211337624074901</v>
+        <v>14.504399894898368</v>
       </c>
       <c r="K257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>27.467881253720357</v>
+        <v>17.544081573064691</v>
       </c>
       <c r="L257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>30.618280343622793</v>
+        <v>20.634933129113413</v>
       </c>
       <c r="M257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>33.650899479170292</v>
+        <v>23.664223927564041</v>
       </c>
       <c r="N257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>36.570194632676326</v>
+        <v>26.580189634342577</v>
       </c>
       <c r="O257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>39.380453211301287</v>
+        <v>29.387117656239482</v>
       </c>
       <c r="P257" s="59">
         <f t="shared" ca="1" si="116"/>
-        <v>42.08580043371628</v>
+        <v>32.089133211555783</v>
       </c>
       <c r="Q257" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>44.690205465543585</v>
+        <v>34.690205465543585</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.15">
@@ -17794,63 +17794,63 @@
       </c>
       <c r="C258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>9.5315808580178079</v>
+        <v>4.1163718062592753</v>
       </c>
       <c r="D258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>11.98776181671578</v>
+        <v>5.5482619493727006</v>
       </c>
       <c r="E258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>14.758083703759013</v>
+        <v>7.323960042309781</v>
       </c>
       <c r="F258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>17.778155242142741</v>
+        <v>9.4548162768892006</v>
       </c>
       <c r="G258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>20.959966234076798</v>
+        <v>11.921255976207499</v>
       </c>
       <c r="H258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>24.206320698493752</v>
+        <v>14.66730703755459</v>
       </c>
       <c r="I258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>27.430159837851342</v>
+        <v>17.603636048863141</v>
       </c>
       <c r="J258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>30.5714886426072</v>
+        <v>20.622472364428461</v>
       </c>
       <c r="K258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>33.603084875767316</v>
+        <v>23.623064889094</v>
       </c>
       <c r="L258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>36.521394891184968</v>
+        <v>26.538047676675589</v>
       </c>
       <c r="M258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>39.330704667121616</v>
+        <v>29.344029115515372</v>
       </c>
       <c r="N258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>42.035138047403287</v>
+        <v>32.045133049069548</v>
       </c>
       <c r="O258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>44.63866287481617</v>
+        <v>34.645327319754358</v>
       </c>
       <c r="P258" s="59">
         <f t="shared" ca="1" si="117"/>
-        <v>47.145096892481654</v>
+        <v>37.148429670321157</v>
       </c>
       <c r="Q258" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>49.558113421987763</v>
+        <v>39.558113421987763</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.15">
@@ -17859,67 +17859,67 @@
       </c>
       <c r="B259" s="59">
         <f t="shared" ref="B259:P259" ca="1" si="118">IF($A259 &lt;= B$34, ($B$10*C258+$B$11*C259)/EXP($B$6 * $B$3/$B$5),"")</f>
-        <v>12.30513760441559</v>
+        <v>5.9320561013795556</v>
       </c>
       <c r="C259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>15.004477868421215</v>
+        <v>7.6977604099977963</v>
       </c>
       <c r="D259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>17.941535346181716</v>
+        <v>9.7885335059788368</v>
       </c>
       <c r="E259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>21.042310191263944</v>
+        <v>12.186405805511621</v>
       </c>
       <c r="F259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>24.223430492776853</v>
+        <v>14.844946148741876</v>
       </c>
       <c r="G259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>27.405970229411974</v>
+        <v>17.69163330336194</v>
       </c>
       <c r="H259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>30.528679371118884</v>
+        <v>20.6378403304467</v>
       </c>
       <c r="I259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>33.555310599448781</v>
+        <v>23.595567583366321</v>
       </c>
       <c r="J259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>36.472635813234547</v>
+        <v>26.495941945506171</v>
       </c>
       <c r="K259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>39.280997110832331</v>
+        <v>29.300977124159019</v>
       </c>
       <c r="L259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>41.984516961681251</v>
+        <v>32.001169747171872</v>
       </c>
       <c r="M259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>44.587161886172289</v>
+        <v>34.600486334566043</v>
       </c>
       <c r="N259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>47.092748355056521</v>
+        <v>37.102743356722783</v>
       </c>
       <c r="O259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>49.504948465684151</v>
+        <v>39.51161291062234</v>
       </c>
       <c r="P259" s="59">
         <f t="shared" ca="1" si="118"/>
-        <v>51.827295403516658</v>
+        <v>41.830628181356161</v>
       </c>
       <c r="Q259" s="56">
         <f t="shared" ca="1" si="103"/>
-        <v>54.063188697035102</v>
+        <v>44.063188697035102</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.15">
@@ -17973,7 +17973,7 @@
         <v>15</v>
       </c>
       <c r="K263" s="59" t="str">
-        <f t="shared" ref="K263:P263" si="119">IF($A263 &lt;= K$34, ($B$10*L262+$B$11*L263)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K263:L263" si="119">IF($A263 &lt;= K$34, ($B$10*L262+$B$11*L263)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L263" s="59" t="str">
@@ -17991,7 +17991,7 @@
         <v>14</v>
       </c>
       <c r="K264" s="59" t="str">
-        <f t="shared" ref="K264:P264" si="120">IF($A264 &lt;= K$34, ($B$10*L263+$B$11*L264)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K264:L264" si="120">IF($A264 &lt;= K$34, ($B$10*L263+$B$11*L264)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L264" s="59" t="str">
@@ -18009,7 +18009,7 @@
         <v>13</v>
       </c>
       <c r="K265" s="59" t="str">
-        <f t="shared" ref="K265:P265" si="121">IF($A265 &lt;= K$34, ($B$10*L264+$B$11*L265)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K265:L265" si="121">IF($A265 &lt;= K$34, ($B$10*L264+$B$11*L265)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L265" s="59" t="str">
@@ -18027,7 +18027,7 @@
         <v>12</v>
       </c>
       <c r="K266" s="59" t="str">
-        <f t="shared" ref="K266:P266" si="122">IF($A266 &lt;= K$34, ($B$10*L265+$B$11*L266)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K266:L266" si="122">IF($A266 &lt;= K$34, ($B$10*L265+$B$11*L266)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L266" s="59" t="str">
@@ -18045,7 +18045,7 @@
         <v>11</v>
       </c>
       <c r="K267" s="59" t="str">
-        <f t="shared" ref="K267:P267" si="123">IF($A267 &lt;= K$34, ($B$10*L266+$B$11*L267)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K267:L267" si="123">IF($A267 &lt;= K$34, ($B$10*L266+$B$11*L267)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L267" s="59" t="str">
@@ -18063,7 +18063,7 @@
         <v>10</v>
       </c>
       <c r="B268" s="59" t="str">
-        <f t="shared" ref="B268:K268" si="124">IF($A268 &lt;= B$34, ($B$10*C262+$B$11*C268)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B268:J268" si="124">IF($A268 &lt;= B$34, ($B$10*C262+$B$11*C268)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C268" s="59" t="str">
@@ -18099,12 +18099,12 @@
         <v/>
       </c>
       <c r="K268" s="59" t="str">
-        <f t="shared" ref="K268:P268" si="125">IF($A268 &lt;= K$34, ($B$10*L267+$B$11*L268)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="K268" si="125">IF($A268 &lt;= K$34, ($B$10*L267+$B$11*L268)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="L268" s="59">
         <f ca="1">MAX(L249,L211)</f>
-        <v>37.36006925527024</v>
+        <v>47.343416469779612</v>
       </c>
       <c r="M268" s="59"/>
       <c r="N268" s="59"/>
@@ -18117,7 +18117,7 @@
         <v>9</v>
       </c>
       <c r="B269" s="59" t="str">
-        <f t="shared" ref="B269:P269" si="126">IF($A269 &lt;= B$34, ($B$10*C268+$B$11*C269)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B269:K269" si="126">IF($A269 &lt;= B$34, ($B$10*C268+$B$11*C269)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C269" s="59" t="str">
@@ -18154,11 +18154,11 @@
       </c>
       <c r="K269" s="59">
         <f t="shared" ca="1" si="126"/>
-        <v>31.781908045720105</v>
+        <v>41.761928032393421</v>
       </c>
       <c r="L269" s="59">
         <f t="shared" ref="L269:L278" ca="1" si="127">MAX(L250,L212)</f>
-        <v>26.390144266223512</v>
+        <v>36.373491480732895</v>
       </c>
       <c r="M269" s="59"/>
       <c r="N269" s="59"/>
@@ -18171,7 +18171,7 @@
         <v>8</v>
       </c>
       <c r="B270" s="59" t="str">
-        <f t="shared" ref="B270:P270" si="128">IF($A270 &lt;= B$34, ($B$10*C269+$B$11*C270)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B270:K270" si="128">IF($A270 &lt;= B$34, ($B$10*C269+$B$11*C270)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C270" s="59" t="str">
@@ -18204,15 +18204,15 @@
       </c>
       <c r="J270" s="59">
         <f t="shared" ca="1" si="128"/>
-        <v>26.470302195546125</v>
+        <v>36.394630193547023</v>
       </c>
       <c r="K270" s="59">
         <f t="shared" ca="1" si="128"/>
-        <v>21.333695182818008</v>
+        <v>31.2105028802631</v>
       </c>
       <c r="L270" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>16.441299527988726</v>
+        <v>26.221216976064937</v>
       </c>
       <c r="M270" s="59"/>
       <c r="N270" s="59"/>
@@ -18225,7 +18225,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="59" t="str">
-        <f t="shared" ref="B271:P271" si="129">IF($A271 &lt;= B$34, ($B$10*C270+$B$11*C271)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B271:K271" si="129">IF($A271 &lt;= B$34, ($B$10*C270+$B$11*C271)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C271" s="59" t="str">
@@ -18254,19 +18254,19 @@
       </c>
       <c r="I271" s="59">
         <f t="shared" ca="1" si="129"/>
-        <v>21.526809809516344</v>
+        <v>31.250031291459631</v>
       </c>
       <c r="J271" s="59">
         <f t="shared" ca="1" si="129"/>
-        <v>16.74414595044718</v>
+        <v>26.27861537510719</v>
       </c>
       <c r="K271" s="59">
         <f t="shared" ca="1" si="129"/>
-        <v>12.301781055003142</v>
+        <v>21.510333436725645</v>
       </c>
       <c r="L271" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>8.2931750658147259</v>
+        <v>16.953365416112128</v>
       </c>
       <c r="M271" s="59"/>
       <c r="N271" s="59"/>
@@ -18279,7 +18279,7 @@
         <v>6</v>
       </c>
       <c r="B272" s="59" t="str">
-        <f t="shared" ref="B272:P272" si="130">IF($A272 &lt;= B$34, ($B$10*C271+$B$11*C272)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B272:K272" si="130">IF($A272 &lt;= B$34, ($B$10*C271+$B$11*C272)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C272" s="59" t="str">
@@ -18304,23 +18304,23 @@
       </c>
       <c r="H272" s="59">
         <f t="shared" ca="1" si="130"/>
-        <v>17.195027755180551</v>
+        <v>26.368572579450415</v>
       </c>
       <c r="I272" s="59">
         <f t="shared" ca="1" si="130"/>
-        <v>13.003077508880516</v>
+        <v>21.6492821559094</v>
       </c>
       <c r="J272" s="59">
         <f t="shared" ca="1" si="130"/>
-        <v>9.3815590439570666</v>
+        <v>17.171535892155678</v>
       </c>
       <c r="K272" s="59">
         <f t="shared" ca="1" si="130"/>
-        <v>6.5541511722111956</v>
+        <v>12.972762894289358</v>
       </c>
       <c r="L272" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>4.8710345310082248</v>
+        <v>9.1187981129838978</v>
       </c>
       <c r="M272" s="59"/>
       <c r="N272" s="59"/>
@@ -18333,7 +18333,7 @@
         <v>5</v>
       </c>
       <c r="B273" s="59" t="str">
-        <f t="shared" ref="B273:P273" si="131">IF($A273 &lt;= B$34, ($B$10*C272+$B$11*C273)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B273:K273" si="131">IF($A273 &lt;= B$34, ($B$10*C272+$B$11*C273)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C273" s="59" t="str">
@@ -18354,27 +18354,27 @@
       </c>
       <c r="G273" s="59">
         <f t="shared" ca="1" si="131"/>
-        <v>13.837793576681314</v>
+        <v>21.819828688065158</v>
       </c>
       <c r="H273" s="59">
         <f t="shared" ca="1" si="131"/>
-        <v>10.58926820165278</v>
+        <v>17.420392460431376</v>
       </c>
       <c r="I273" s="59">
         <f t="shared" ca="1" si="131"/>
-        <v>8.2540396131498461</v>
+        <v>13.328429494346178</v>
       </c>
       <c r="J273" s="59">
         <f t="shared" ca="1" si="131"/>
-        <v>7.1653989394256827</v>
+        <v>9.6081145568218727</v>
       </c>
       <c r="K273" s="59">
         <f t="shared" ca="1" si="131"/>
-        <v>7.763216041002992</v>
+        <v>6.3496166092120383</v>
       </c>
       <c r="L273" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>10.574677603845192</v>
+        <v>3.666775792899557</v>
       </c>
       <c r="M273" s="59"/>
       <c r="N273" s="59"/>
@@ -18387,7 +18387,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="59" t="str">
-        <f t="shared" ref="B274:P274" si="132">IF($A274 &lt;= B$34, ($B$10*C273+$B$11*C274)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B274:K274" si="132">IF($A274 &lt;= B$34, ($B$10*C273+$B$11*C274)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C274" s="59" t="str">
@@ -18404,31 +18404,31 @@
       </c>
       <c r="F274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>11.689404431562158</v>
+        <v>17.809621972442031</v>
       </c>
       <c r="G274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>9.6124428754457387</v>
+        <v>13.93010870137379</v>
       </c>
       <c r="H274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>8.670917086224069</v>
+        <v>10.55254235661271</v>
       </c>
       <c r="I274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>9.0811203815996642</v>
+        <v>7.8659557216979428</v>
       </c>
       <c r="J274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>10.945962015998665</v>
+        <v>6.1806588668123563</v>
       </c>
       <c r="K274" s="59">
         <f t="shared" ca="1" si="132"/>
-        <v>14.041456844522878</v>
+        <v>6.0207745781660211</v>
       </c>
       <c r="L274" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>17.41459022522201</v>
+        <v>8.3088782886232888</v>
       </c>
       <c r="M274" s="59"/>
       <c r="N274" s="59"/>
@@ -18441,7 +18441,7 @@
         <v>3</v>
       </c>
       <c r="B275" s="59" t="str">
-        <f t="shared" ref="B275:P275" si="133">IF($A275 &lt;= B$34, ($B$10*C274+$B$11*C275)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B275:K275" si="133">IF($A275 &lt;= B$34, ($B$10*C274+$B$11*C275)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C275" s="59" t="str">
@@ -18454,35 +18454,35 @@
       </c>
       <c r="E275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>10.783924576717052</v>
+        <v>14.585647820872994</v>
       </c>
       <c r="F275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>9.912396758900087</v>
+        <v>11.466919512184559</v>
       </c>
       <c r="G275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>10.209961439286895</v>
+        <v>9.0843528034420107</v>
       </c>
       <c r="H275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>11.710044615000774</v>
+        <v>7.665696107184341</v>
       </c>
       <c r="I275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>14.268653128142217</v>
+        <v>7.476414263500617</v>
       </c>
       <c r="J275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>17.50212313858535</v>
+        <v>8.7386319515063313</v>
       </c>
       <c r="K275" s="59">
         <f t="shared" ca="1" si="133"/>
-        <v>20.871598222036425</v>
+        <v>11.381582821184704</v>
       </c>
       <c r="L275" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>24.239736918823482</v>
+        <v>14.370587611723987</v>
       </c>
       <c r="M275" s="59"/>
       <c r="N275" s="59"/>
@@ -18495,7 +18495,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="59" t="str">
-        <f t="shared" ref="B276:P276" si="134">IF($A276 &lt;= B$34, ($B$10*C275+$B$11*C276)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B276:K276" si="134">IF($A276 &lt;= B$34, ($B$10*C275+$B$11*C276)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C276" s="59" t="str">
@@ -18504,39 +18504,39 @@
       </c>
       <c r="D276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>10.999774877593467</v>
+        <v>12.324801725263425</v>
       </c>
       <c r="E276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>11.216445857360497</v>
+        <v>10.139137528510123</v>
       </c>
       <c r="F276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>12.489167920011942</v>
+        <v>8.8574149707351655</v>
       </c>
       <c r="G276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>14.708947624097886</v>
+        <v>8.6430293521023334</v>
       </c>
       <c r="H276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>17.628526494915832</v>
+        <v>9.5970397375057139</v>
       </c>
       <c r="I276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>20.900282504664442</v>
+        <v>11.661044201285371</v>
       </c>
       <c r="J276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>24.211337624074901</v>
+        <v>14.504399894898368</v>
       </c>
       <c r="K276" s="59">
         <f t="shared" ca="1" si="134"/>
-        <v>27.467881253720357</v>
+        <v>17.544081573064691</v>
       </c>
       <c r="L276" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>30.618280343622793</v>
+        <v>20.634933129113413</v>
       </c>
       <c r="M276" s="59"/>
       <c r="N276" s="59"/>
@@ -18549,48 +18549,48 @@
         <v>1</v>
       </c>
       <c r="B277" s="59" t="str">
-        <f t="shared" ref="B277:P277" si="135">IF($A277 &lt;= B$34, ($B$10*C276+$B$11*C277)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <f t="shared" ref="B277:K277" si="135">IF($A277 &lt;= B$34, ($B$10*C276+$B$11*C277)/EXP($B$6 * $B$3/$B$5),"")</f>
         <v/>
       </c>
       <c r="C277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>12.134164909918885</v>
+        <v>11.084614163785417</v>
       </c>
       <c r="D277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>13.242865023422445</v>
+        <v>9.8885079149548076</v>
       </c>
       <c r="E277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>15.217853444633892</v>
+        <v>9.651810829598908</v>
       </c>
       <c r="F277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>17.875567267145918</v>
+        <v>10.428974770098788</v>
       </c>
       <c r="G277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>20.959966234076798</v>
+        <v>12.168776600266817</v>
       </c>
       <c r="H277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>24.206320698493752</v>
+        <v>14.672195993635256</v>
       </c>
       <c r="I277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>27.430159837851342</v>
+        <v>17.603636048863141</v>
       </c>
       <c r="J277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>30.5714886426072</v>
+        <v>20.622472364428461</v>
       </c>
       <c r="K277" s="59">
         <f t="shared" ca="1" si="135"/>
-        <v>33.603084875767316</v>
+        <v>23.623064889094</v>
       </c>
       <c r="L277" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>36.521394891184968</v>
+        <v>26.538047676675589</v>
       </c>
       <c r="M277" s="59"/>
       <c r="N277" s="59"/>
@@ -18602,49 +18602,49 @@
       <c r="A278" s="49">
         <v>0</v>
       </c>
-      <c r="B278" s="68">
-        <f t="shared" ref="B278:P278" ca="1" si="136">IF($A278 &lt;= B$34, ($B$10*C277+$B$11*C278)/EXP($B$6 * $B$3/$B$5),"")</f>
-        <v>13.964429147465308</v>
+      <c r="B278" s="62">
+        <f t="shared" ref="B278:K278" ca="1" si="136">IF($A278 &lt;= B$34, ($B$10*C277+$B$11*C278)/EXP($B$6 * $B$3/$B$5),"")</f>
+        <v>10.812447011754459</v>
       </c>
       <c r="C278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>15.749557115655559</v>
+        <v>10.555458391600441</v>
       </c>
       <c r="D278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>18.192213968777381</v>
+        <v>11.20955221998684</v>
       </c>
       <c r="E278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>21.090266707978575</v>
+        <v>12.728434253572372</v>
       </c>
       <c r="F278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>24.223430492776853</v>
+        <v>14.96802316505546</v>
       </c>
       <c r="G278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>27.405970229411974</v>
+        <v>17.694040165389417</v>
       </c>
       <c r="H278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>30.528679371118884</v>
+        <v>20.6378403304467</v>
       </c>
       <c r="I278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>33.555310599448781</v>
+        <v>23.595567583366321</v>
       </c>
       <c r="J278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>36.472635813234547</v>
+        <v>26.495941945506171</v>
       </c>
       <c r="K278" s="59">
         <f t="shared" ca="1" si="136"/>
-        <v>39.280997110832331</v>
+        <v>29.300977124159019</v>
       </c>
       <c r="L278" s="59">
         <f t="shared" ca="1" si="127"/>
-        <v>41.984516961681251</v>
+        <v>32.001169747171872</v>
       </c>
       <c r="M278" s="59"/>
       <c r="N278" s="59"/>
